--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2638492.873840761</v>
+        <v>-2640383.133471645</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4947975.249009459</v>
+        <v>4947975.249009456</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.2673832719474</v>
+        <v>310.7179820765713</v>
       </c>
       <c r="C11" t="n">
-        <v>293.2570321840982</v>
+        <v>293.2570321840983</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>309.9145104853525</v>
       </c>
       <c r="F11" t="n">
-        <v>334.8601861548021</v>
+        <v>11.89963549606743</v>
       </c>
       <c r="G11" t="n">
-        <v>340.5438680270942</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.367092378894</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.71014077012099</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>74.49787187729987</v>
+        <v>74.49787187729993</v>
       </c>
       <c r="T11" t="n">
-        <v>139.0724641350185</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>179.1103525288367</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>255.7363988832257</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>277.2251091305038</v>
       </c>
       <c r="X11" t="n">
-        <v>297.7152410915597</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>314.2220790691442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>100.6926394014064</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>85.62922086849161</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>68.60151098519516</v>
+        <v>92.71588117390104</v>
       </c>
       <c r="H12" t="n">
-        <v>26.04527506637886</v>
+        <v>98.06113465328819</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.86605599937834</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.035433398830108</v>
       </c>
       <c r="S12" t="n">
-        <v>144.422407668376</v>
+        <v>72.40654808146672</v>
       </c>
       <c r="T12" t="n">
         <v>122.2332512573363</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8448268385824</v>
+        <v>153.8289672516731</v>
       </c>
       <c r="V12" t="n">
-        <v>160.7847275625159</v>
+        <v>160.784727562516</v>
       </c>
       <c r="W12" t="n">
-        <v>179.6791235740103</v>
+        <v>179.6791235740104</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>133.7571256165682</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>133.6668361903951</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>107.816120595028</v>
       </c>
       <c r="C13" t="n">
-        <v>95.2309615117185</v>
+        <v>50.94450636805907</v>
       </c>
       <c r="D13" t="n">
-        <v>35.54409835017901</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>74.41810305965984</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.40518843602192</v>
+        <v>73.40518843602199</v>
       </c>
       <c r="G13" t="n">
-        <v>94.7446999613902</v>
+        <v>94.74469996139027</v>
       </c>
       <c r="H13" t="n">
-        <v>79.27176224475087</v>
+        <v>79.27176224475096</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>46.43253595846956</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>49.95338287164598</v>
+        <v>49.95338287164605</v>
       </c>
       <c r="S13" t="n">
         <v>130.5578768493789</v>
       </c>
       <c r="T13" t="n">
-        <v>150.6724815616009</v>
+        <v>150.672481561601</v>
       </c>
       <c r="U13" t="n">
-        <v>214.2360559617547</v>
+        <v>214.2360559617548</v>
       </c>
       <c r="V13" t="n">
-        <v>180.1217837369187</v>
+        <v>180.1217837369188</v>
       </c>
       <c r="W13" t="n">
-        <v>214.5071387496817</v>
+        <v>214.5071387496818</v>
       </c>
       <c r="X13" t="n">
-        <v>153.6937958021278</v>
+        <v>153.6937958021279</v>
       </c>
       <c r="Y13" t="n">
         <v>146.5687937651855</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>310.7179820765712</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>293.2570321840981</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>282.6671820337737</v>
       </c>
       <c r="E14" t="n">
-        <v>309.9145104853524</v>
+        <v>309.9145104853525</v>
       </c>
       <c r="F14" t="n">
-        <v>334.860186154802</v>
+        <v>334.8601861548022</v>
       </c>
       <c r="G14" t="n">
-        <v>340.543868027094</v>
+        <v>340.5438680270942</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>239.367092378894</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>74.49787187729994</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>53.25113100515379</v>
+        <v>119.1796791617735</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>255.7363988832257</v>
       </c>
       <c r="W14" t="n">
-        <v>277.2251091305036</v>
+        <v>277.2251091305038</v>
       </c>
       <c r="X14" t="n">
-        <v>297.7152410915596</v>
+        <v>297.7152410915598</v>
       </c>
       <c r="Y14" t="n">
-        <v>314.2220790691442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1743,7 +1743,7 @@
         <v>225.8448268385824</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>107.8161205950279</v>
+        <v>107.816120595028</v>
       </c>
       <c r="C16" t="n">
-        <v>95.23096151171843</v>
+        <v>95.23096151171858</v>
       </c>
       <c r="D16" t="n">
-        <v>76.59961343130296</v>
+        <v>76.5996134313031</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>74.41810305965991</v>
       </c>
       <c r="F16" t="n">
-        <v>47.26381982245233</v>
+        <v>73.40518843602199</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>94.74469996139027</v>
       </c>
       <c r="H16" t="n">
-        <v>79.27176224475082</v>
+        <v>79.27176224475096</v>
       </c>
       <c r="I16" t="n">
-        <v>46.43253595846942</v>
+        <v>46.43253595846956</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.95338287164591</v>
+        <v>49.95338287164605</v>
       </c>
       <c r="S16" t="n">
-        <v>130.5578768493788</v>
+        <v>130.5578768493789</v>
       </c>
       <c r="T16" t="n">
-        <v>150.6724815616008</v>
+        <v>150.672481561601</v>
       </c>
       <c r="U16" t="n">
-        <v>214.2360559617546</v>
+        <v>214.2360559617548</v>
       </c>
       <c r="V16" t="n">
-        <v>180.1217837369186</v>
+        <v>180.1217837369188</v>
       </c>
       <c r="W16" t="n">
-        <v>214.5071387496816</v>
+        <v>19.20296711505888</v>
       </c>
       <c r="X16" t="n">
-        <v>153.6937958021277</v>
+        <v>153.6937958021279</v>
       </c>
       <c r="Y16" t="n">
-        <v>146.5687937651854</v>
+        <v>146.5687937651855</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.5101083108331</v>
+        <v>230.5101083108332</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0491584183601</v>
+        <v>213.0491584183602</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4593082680355</v>
+        <v>202.4593082680356</v>
       </c>
       <c r="E17" t="n">
         <v>229.7066367196144</v>
       </c>
       <c r="F17" t="n">
-        <v>254.652312389064</v>
+        <v>254.6523123890641</v>
       </c>
       <c r="G17" t="n">
         <v>260.3359942613561</v>
       </c>
       <c r="H17" t="n">
-        <v>159.1592186131558</v>
+        <v>159.1592186131559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.86459036928039</v>
+        <v>58.86459036928048</v>
       </c>
       <c r="U17" t="n">
-        <v>98.90247876309854</v>
+        <v>98.90247876309863</v>
       </c>
       <c r="V17" t="n">
-        <v>175.5285251174875</v>
+        <v>175.5285251174876</v>
       </c>
       <c r="W17" t="n">
-        <v>197.0172353647656</v>
+        <v>197.0172353647657</v>
       </c>
       <c r="X17" t="n">
-        <v>217.5073673258216</v>
+        <v>217.5073673258217</v>
       </c>
       <c r="Y17" t="n">
         <v>234.0142053034062</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.60824682928987</v>
+        <v>27.60824682928995</v>
       </c>
       <c r="C19" t="n">
-        <v>15.0230877459804</v>
+        <v>15.02308774598049</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.5368261956521</v>
+        <v>14.53682619565218</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.36849953841508</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.35000308364076</v>
+        <v>202.5737364362882</v>
       </c>
       <c r="T19" t="n">
-        <v>214.4521076637411</v>
+        <v>208.0836081253253</v>
       </c>
       <c r="U19" t="n">
-        <v>134.0281821960166</v>
+        <v>134.0281821960167</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>134.2992649839436</v>
+        <v>134.2992649839437</v>
       </c>
       <c r="X19" t="n">
-        <v>73.48592203638972</v>
+        <v>73.48592203638981</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>66.36091999944745</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.5101083108331</v>
+        <v>230.5101083108332</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0491584183601</v>
+        <v>213.0491584183602</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4593082680355</v>
+        <v>202.4593082680356</v>
       </c>
       <c r="E20" t="n">
         <v>229.7066367196144</v>
       </c>
       <c r="F20" t="n">
-        <v>254.652312389064</v>
+        <v>254.6523123890641</v>
       </c>
       <c r="G20" t="n">
         <v>260.3359942613561</v>
       </c>
       <c r="H20" t="n">
-        <v>159.1592186131558</v>
+        <v>159.1592186131559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.86459036928039</v>
+        <v>58.86459036928048</v>
       </c>
       <c r="U20" t="n">
-        <v>98.90247876309854</v>
+        <v>98.90247876309863</v>
       </c>
       <c r="V20" t="n">
-        <v>175.5285251174875</v>
+        <v>175.5285251174876</v>
       </c>
       <c r="W20" t="n">
-        <v>197.0172353647656</v>
+        <v>197.0172353647654</v>
       </c>
       <c r="X20" t="n">
-        <v>217.5073673258216</v>
+        <v>217.5073673258217</v>
       </c>
       <c r="Y20" t="n">
         <v>234.0142053034062</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.60824682928987</v>
+        <v>27.60824682928995</v>
       </c>
       <c r="C22" t="n">
-        <v>15.0230877459804</v>
+        <v>15.02308774598049</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.5368261956521</v>
+        <v>14.53682619565218</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.36849953841508</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.35000308364076</v>
+        <v>50.35000308364085</v>
       </c>
       <c r="T22" t="n">
-        <v>70.4646077958628</v>
+        <v>208.0836081253252</v>
       </c>
       <c r="U22" t="n">
-        <v>134.0281821960166</v>
+        <v>286.251915548664</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>278.2867648518218</v>
+        <v>134.2992649839437</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>73.48592203638981</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.36091999944736</v>
+        <v>66.36091999944745</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.5101083108331</v>
+        <v>230.5101083108332</v>
       </c>
       <c r="C23" t="n">
-        <v>213.0491584183601</v>
+        <v>213.0491584183602</v>
       </c>
       <c r="D23" t="n">
-        <v>202.4593082680355</v>
+        <v>202.4593082680356</v>
       </c>
       <c r="E23" t="n">
         <v>229.7066367196144</v>
       </c>
       <c r="F23" t="n">
-        <v>254.652312389064</v>
+        <v>254.6523123890641</v>
       </c>
       <c r="G23" t="n">
         <v>260.3359942613561</v>
       </c>
       <c r="H23" t="n">
-        <v>159.1592186131558</v>
+        <v>159.1592186131559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.86459036928039</v>
+        <v>58.86459036928048</v>
       </c>
       <c r="U23" t="n">
-        <v>98.90247876309854</v>
+        <v>98.90247876309863</v>
       </c>
       <c r="V23" t="n">
-        <v>175.5285251174875</v>
+        <v>175.5285251174876</v>
       </c>
       <c r="W23" t="n">
-        <v>197.0172353647656</v>
+        <v>197.0172353647657</v>
       </c>
       <c r="X23" t="n">
-        <v>217.5073673258216</v>
+        <v>217.5073673258217</v>
       </c>
       <c r="Y23" t="n">
         <v>234.0142053034062</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.60824682928987</v>
+        <v>27.60824682928995</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0230877459804</v>
+        <v>15.02308774598049</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7605595482995</v>
+        <v>14.53682619565218</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.36849953841508</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.35000308364076</v>
+        <v>202.5737364362882</v>
       </c>
       <c r="T25" t="n">
-        <v>70.4646077958628</v>
+        <v>208.0836081253252</v>
       </c>
       <c r="U25" t="n">
-        <v>134.0281821960166</v>
+        <v>286.251915548664</v>
       </c>
       <c r="V25" t="n">
-        <v>247.5096701734938</v>
+        <v>99.91390997118066</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2992649839436</v>
+        <v>134.2992649839437</v>
       </c>
       <c r="X25" t="n">
-        <v>73.48592203638972</v>
+        <v>73.48592203638981</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.36091999944736</v>
+        <v>66.36091999944745</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C26" t="n">
-        <v>285.0650180052694</v>
+        <v>285.0650180052695</v>
       </c>
       <c r="D26" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E26" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F26" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G26" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H26" t="n">
         <v>231.1750782000651</v>
       </c>
       <c r="I26" t="n">
-        <v>24.5181265912921</v>
+        <v>24.51812659129213</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.30585769847107</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T26" t="n">
         <v>130.8804499561897</v>
       </c>
       <c r="U26" t="n">
-        <v>170.9183383500078</v>
+        <v>170.9183383500079</v>
       </c>
       <c r="V26" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W26" t="n">
         <v>269.0330949516749</v>
@@ -2621,7 +2621,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.0300648903154</v>
+        <v>306.0300648903155</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.06113465328819</v>
       </c>
       <c r="I27" t="n">
-        <v>38.86605599937835</v>
+        <v>38.86605599937834</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.035433398830122</v>
+        <v>9.035433398830108</v>
       </c>
       <c r="S27" t="n">
         <v>144.422407668376</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.62410641619915</v>
+        <v>99.6241064161992</v>
       </c>
       <c r="C28" t="n">
-        <v>87.03894733288969</v>
+        <v>87.03894733288973</v>
       </c>
       <c r="D28" t="n">
-        <v>68.40759925247421</v>
+        <v>68.40759925247426</v>
       </c>
       <c r="E28" t="n">
-        <v>66.22608888083103</v>
+        <v>66.22608888083107</v>
       </c>
       <c r="F28" t="n">
-        <v>65.2131742571931</v>
+        <v>65.21317425719315</v>
       </c>
       <c r="G28" t="n">
-        <v>86.5526857825614</v>
+        <v>86.55268578256144</v>
       </c>
       <c r="H28" t="n">
-        <v>71.07974806592208</v>
+        <v>71.07974806592212</v>
       </c>
       <c r="I28" t="n">
-        <v>38.24052177964069</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76136869281717</v>
+        <v>41.76136869281721</v>
       </c>
       <c r="S28" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T28" t="n">
         <v>142.4804673827721</v>
@@ -2770,16 +2770,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V28" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W28" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X28" t="n">
-        <v>145.501781623299</v>
+        <v>145.5017816232991</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>332.3518538482654</v>
       </c>
       <c r="H29" t="n">
-        <v>231.1750782000652</v>
+        <v>231.1750782000651</v>
       </c>
       <c r="I29" t="n">
-        <v>24.51812659129214</v>
+        <v>24.51812659129213</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.30585769847112</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T29" t="n">
-        <v>130.8804499561898</v>
+        <v>130.8804499561897</v>
       </c>
       <c r="U29" t="n">
         <v>170.9183383500079</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.62410641619921</v>
+        <v>99.6241064161992</v>
       </c>
       <c r="C31" t="n">
-        <v>87.03894733288975</v>
+        <v>87.03894733288973</v>
       </c>
       <c r="D31" t="n">
-        <v>68.40759925247427</v>
+        <v>68.40759925247426</v>
       </c>
       <c r="E31" t="n">
-        <v>66.22608888083109</v>
+        <v>66.22608888083107</v>
       </c>
       <c r="F31" t="n">
-        <v>65.21317425719316</v>
+        <v>65.21317425719315</v>
       </c>
       <c r="G31" t="n">
-        <v>86.55268578256145</v>
+        <v>86.55268578256144</v>
       </c>
       <c r="H31" t="n">
         <v>71.07974806592212</v>
       </c>
       <c r="I31" t="n">
-        <v>38.24052177964073</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>145.5017816232991</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.3767795863567</v>
+        <v>138.376779586356</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C32" t="n">
-        <v>285.0650180052694</v>
+        <v>285.0650180052695</v>
       </c>
       <c r="D32" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E32" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F32" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G32" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H32" t="n">
-        <v>231.1750782000651</v>
+        <v>231.1750782000652</v>
       </c>
       <c r="I32" t="n">
-        <v>24.51812659129209</v>
+        <v>24.51812659129214</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.30585769847106</v>
+        <v>66.30585769847112</v>
       </c>
       <c r="T32" t="n">
-        <v>130.8804499561897</v>
+        <v>130.8804499561898</v>
       </c>
       <c r="U32" t="n">
-        <v>170.9183383500078</v>
+        <v>170.9183383500079</v>
       </c>
       <c r="V32" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W32" t="n">
         <v>269.0330949516749</v>
@@ -3095,7 +3095,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.0300648903154</v>
+        <v>306.0300648903155</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.62410641619915</v>
+        <v>99.62410641619921</v>
       </c>
       <c r="C34" t="n">
-        <v>87.03894733288969</v>
+        <v>87.03894733288975</v>
       </c>
       <c r="D34" t="n">
-        <v>68.40759925247421</v>
+        <v>68.40759925247427</v>
       </c>
       <c r="E34" t="n">
-        <v>66.22608888083103</v>
+        <v>66.22608888083109</v>
       </c>
       <c r="F34" t="n">
-        <v>65.2131742571931</v>
+        <v>65.21317425719316</v>
       </c>
       <c r="G34" t="n">
-        <v>86.5526857825614</v>
+        <v>86.55268578256145</v>
       </c>
       <c r="H34" t="n">
-        <v>71.07974806592206</v>
+        <v>71.07974806592212</v>
       </c>
       <c r="I34" t="n">
-        <v>38.24052177964067</v>
+        <v>38.24052177964073</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76136869281716</v>
+        <v>41.76136869281721</v>
       </c>
       <c r="S34" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T34" t="n">
         <v>142.4804673827721</v>
@@ -3244,16 +3244,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V34" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W34" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X34" t="n">
-        <v>145.501781623299</v>
+        <v>145.5017816232991</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C35" t="n">
-        <v>285.0650180052694</v>
+        <v>285.0650180052695</v>
       </c>
       <c r="D35" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E35" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F35" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G35" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H35" t="n">
-        <v>231.1750782000651</v>
+        <v>231.1750782000652</v>
       </c>
       <c r="I35" t="n">
-        <v>24.51812659129209</v>
+        <v>24.51812659129213</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.30585769847106</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T35" t="n">
         <v>130.8804499561897</v>
       </c>
       <c r="U35" t="n">
-        <v>170.9183383500078</v>
+        <v>170.9183383500079</v>
       </c>
       <c r="V35" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W35" t="n">
         <v>269.0330949516749</v>
@@ -3332,7 +3332,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y35" t="n">
-        <v>306.0300648903154</v>
+        <v>306.0300648903155</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.62410641619915</v>
+        <v>99.6241064161992</v>
       </c>
       <c r="C37" t="n">
-        <v>87.03894733288969</v>
+        <v>87.03894733288973</v>
       </c>
       <c r="D37" t="n">
-        <v>68.40759925247421</v>
+        <v>68.40759925247426</v>
       </c>
       <c r="E37" t="n">
-        <v>66.22608888083103</v>
+        <v>66.22608888083107</v>
       </c>
       <c r="F37" t="n">
-        <v>65.2131742571931</v>
+        <v>65.21317425719315</v>
       </c>
       <c r="G37" t="n">
-        <v>86.55268578256138</v>
+        <v>86.55268578256144</v>
       </c>
       <c r="H37" t="n">
-        <v>71.07974806592208</v>
+        <v>71.0797480659221</v>
       </c>
       <c r="I37" t="n">
-        <v>38.24052177964068</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76136869281716</v>
+        <v>41.7613686928172</v>
       </c>
       <c r="S37" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T37" t="n">
         <v>142.4804673827721</v>
@@ -3481,16 +3481,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V37" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W37" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X37" t="n">
-        <v>145.501781623299</v>
+        <v>145.5017816232991</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C38" t="n">
-        <v>285.0650180052694</v>
+        <v>285.0650180052695</v>
       </c>
       <c r="D38" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E38" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F38" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G38" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H38" t="n">
-        <v>231.1750782000651</v>
+        <v>231.1750782000652</v>
       </c>
       <c r="I38" t="n">
-        <v>24.51812659129209</v>
+        <v>24.51812659129213</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.30585769847106</v>
+        <v>66.3058576984711</v>
       </c>
       <c r="T38" t="n">
         <v>130.8804499561897</v>
       </c>
       <c r="U38" t="n">
-        <v>170.9183383500078</v>
+        <v>170.9183383500079</v>
       </c>
       <c r="V38" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W38" t="n">
         <v>269.0330949516749</v>
@@ -3569,7 +3569,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y38" t="n">
-        <v>306.0300648903154</v>
+        <v>306.0300648903155</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.62410641619915</v>
+        <v>99.6241064161992</v>
       </c>
       <c r="C40" t="n">
-        <v>87.03894733288969</v>
+        <v>87.03894733288973</v>
       </c>
       <c r="D40" t="n">
-        <v>68.40759925247421</v>
+        <v>68.40759925247426</v>
       </c>
       <c r="E40" t="n">
-        <v>66.22608888083103</v>
+        <v>66.22608888083107</v>
       </c>
       <c r="F40" t="n">
-        <v>65.2131742571931</v>
+        <v>65.21317425719315</v>
       </c>
       <c r="G40" t="n">
-        <v>86.55268578256138</v>
+        <v>86.55268578256143</v>
       </c>
       <c r="H40" t="n">
-        <v>71.07974806592208</v>
+        <v>71.07974806592212</v>
       </c>
       <c r="I40" t="n">
-        <v>38.24052177964068</v>
+        <v>38.24052177964072</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76136869281716</v>
+        <v>41.76136869281721</v>
       </c>
       <c r="S40" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T40" t="n">
         <v>142.4804673827721</v>
@@ -3718,16 +3718,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V40" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W40" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X40" t="n">
-        <v>145.501781623299</v>
+        <v>145.5017816232991</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>302.5259678977425</v>
       </c>
       <c r="C41" t="n">
-        <v>285.0650180052695</v>
+        <v>285.0650180052694</v>
       </c>
       <c r="D41" t="n">
         <v>274.4751678549449</v>
@@ -3758,7 +3758,7 @@
         <v>231.1750782000651</v>
       </c>
       <c r="I41" t="n">
-        <v>24.51812659129216</v>
+        <v>24.5181265912921</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.30585769847113</v>
+        <v>66.30585769847107</v>
       </c>
       <c r="T41" t="n">
-        <v>130.8804499561898</v>
+        <v>130.8804499561897</v>
       </c>
       <c r="U41" t="n">
-        <v>170.9183383500079</v>
+        <v>170.9183383500078</v>
       </c>
       <c r="V41" t="n">
         <v>247.5443847043968</v>
@@ -3806,7 +3806,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y41" t="n">
-        <v>306.0300648903155</v>
+        <v>306.0300648903154</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.62410641619923</v>
+        <v>99.62410641619917</v>
       </c>
       <c r="C43" t="n">
-        <v>87.03894733288976</v>
+        <v>87.03894733288971</v>
       </c>
       <c r="D43" t="n">
-        <v>68.40759925247428</v>
+        <v>68.40759925247423</v>
       </c>
       <c r="E43" t="n">
-        <v>66.2260888808311</v>
+        <v>66.22608888083104</v>
       </c>
       <c r="F43" t="n">
-        <v>65.21317425719317</v>
+        <v>65.21317425719312</v>
       </c>
       <c r="G43" t="n">
-        <v>86.55268578256145</v>
+        <v>86.5526857825614</v>
       </c>
       <c r="H43" t="n">
-        <v>71.07974806592215</v>
+        <v>71.07974806592209</v>
       </c>
       <c r="I43" t="n">
-        <v>38.24052177964075</v>
+        <v>38.24052177964069</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76136869281724</v>
+        <v>41.76136869281718</v>
       </c>
       <c r="S43" t="n">
         <v>122.3658626705501</v>
       </c>
       <c r="T43" t="n">
-        <v>142.4804673827722</v>
+        <v>142.4804673827721</v>
       </c>
       <c r="U43" t="n">
         <v>206.0440417829259</v>
@@ -3961,7 +3961,7 @@
         <v>206.3151245708529</v>
       </c>
       <c r="X43" t="n">
-        <v>145.5017816232991</v>
+        <v>145.501781623299</v>
       </c>
       <c r="Y43" t="n">
         <v>138.3767795863567</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>302.5259678977424</v>
+        <v>302.5259678977425</v>
       </c>
       <c r="C44" t="n">
-        <v>285.0650180052694</v>
+        <v>285.0650180052695</v>
       </c>
       <c r="D44" t="n">
-        <v>274.4751678549448</v>
+        <v>274.4751678549449</v>
       </c>
       <c r="E44" t="n">
-        <v>301.7224963065236</v>
+        <v>301.7224963065237</v>
       </c>
       <c r="F44" t="n">
         <v>326.6681719759733</v>
       </c>
       <c r="G44" t="n">
-        <v>332.3518538482653</v>
+        <v>332.3518538482654</v>
       </c>
       <c r="H44" t="n">
         <v>231.1750782000651</v>
       </c>
       <c r="I44" t="n">
-        <v>24.51812659129207</v>
+        <v>24.51812659129212</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30585769847104</v>
+        <v>66.30585769847107</v>
       </c>
       <c r="T44" t="n">
         <v>130.8804499561897</v>
@@ -4034,7 +4034,7 @@
         <v>170.9183383500078</v>
       </c>
       <c r="V44" t="n">
-        <v>247.5443847043967</v>
+        <v>247.5443847043968</v>
       </c>
       <c r="W44" t="n">
         <v>269.0330949516749</v>
@@ -4043,7 +4043,7 @@
         <v>289.5232269127309</v>
       </c>
       <c r="Y44" t="n">
-        <v>306.0300648903154</v>
+        <v>306.0300648903155</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.62410641619914</v>
+        <v>99.62410641619918</v>
       </c>
       <c r="C46" t="n">
-        <v>87.03894733288968</v>
+        <v>87.03894733288972</v>
       </c>
       <c r="D46" t="n">
-        <v>68.4075992524742</v>
+        <v>68.40759925247424</v>
       </c>
       <c r="E46" t="n">
-        <v>66.22608888083101</v>
+        <v>66.22608888083106</v>
       </c>
       <c r="F46" t="n">
-        <v>65.21317425719309</v>
+        <v>65.21317425719313</v>
       </c>
       <c r="G46" t="n">
-        <v>86.55268578256137</v>
+        <v>86.55268578256141</v>
       </c>
       <c r="H46" t="n">
-        <v>71.07974806592206</v>
+        <v>71.0797480659221</v>
       </c>
       <c r="I46" t="n">
-        <v>38.24052177964067</v>
+        <v>38.24052177964071</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76136869281715</v>
+        <v>41.76136869281719</v>
       </c>
       <c r="S46" t="n">
-        <v>122.36586267055</v>
+        <v>122.3658626705501</v>
       </c>
       <c r="T46" t="n">
         <v>142.4804673827721</v>
@@ -4192,16 +4192,16 @@
         <v>206.0440417829259</v>
       </c>
       <c r="V46" t="n">
-        <v>171.9297695580898</v>
+        <v>171.9297695580899</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3151245708528</v>
+        <v>206.3151245708529</v>
       </c>
       <c r="X46" t="n">
-        <v>145.501781623299</v>
+        <v>145.5017816232991</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.3767795863566</v>
+        <v>138.3767795863567</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1019.353315970825</v>
+        <v>937.0172805653083</v>
       </c>
       <c r="C11" t="n">
-        <v>723.1340915424425</v>
+        <v>640.7980561369261</v>
       </c>
       <c r="D11" t="n">
-        <v>723.1340915424425</v>
+        <v>640.7980561369261</v>
       </c>
       <c r="E11" t="n">
-        <v>723.1340915424425</v>
+        <v>327.7530960507114</v>
       </c>
       <c r="F11" t="n">
-        <v>384.8914792648646</v>
+        <v>315.7332622162999</v>
       </c>
       <c r="G11" t="n">
-        <v>40.90777418699165</v>
+        <v>315.7332622162999</v>
       </c>
       <c r="H11" t="n">
-        <v>40.90777418699165</v>
+        <v>73.94832041943722</v>
       </c>
       <c r="I11" t="n">
-        <v>40.90777418699165</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J11" t="n">
-        <v>259.559418956131</v>
+        <v>97.77795284276846</v>
       </c>
       <c r="K11" t="n">
-        <v>630.7356572692363</v>
+        <v>546.2248930076478</v>
       </c>
       <c r="L11" t="n">
-        <v>825.8657660720443</v>
+        <v>1052.458598571671</v>
       </c>
       <c r="M11" t="n">
-        <v>1074.655047106096</v>
+        <v>1301.247879605723</v>
       </c>
       <c r="N11" t="n">
-        <v>1580.888752670118</v>
+        <v>1558.676639686924</v>
       </c>
       <c r="O11" t="n">
-        <v>1810.63616974714</v>
+        <v>1788.424056763946</v>
       </c>
       <c r="P11" t="n">
-        <v>1972.219273969072</v>
+        <v>1950.007160985878</v>
       </c>
       <c r="Q11" t="n">
-        <v>2045.388709349582</v>
+        <v>2023.176596366388</v>
       </c>
       <c r="R11" t="n">
-        <v>2045.388709349582</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="S11" t="n">
-        <v>1970.138333715946</v>
+        <v>1970.138333715952</v>
       </c>
       <c r="T11" t="n">
-        <v>1829.661097215927</v>
+        <v>1970.138333715952</v>
       </c>
       <c r="U11" t="n">
-        <v>1829.661097215927</v>
+        <v>1789.218785707026</v>
       </c>
       <c r="V11" t="n">
-        <v>1829.661097215927</v>
+        <v>1530.899190875485</v>
       </c>
       <c r="W11" t="n">
-        <v>1829.661097215927</v>
+        <v>1250.873828117401</v>
       </c>
       <c r="X11" t="n">
-        <v>1528.938631466877</v>
+        <v>1250.873828117401</v>
       </c>
       <c r="Y11" t="n">
-        <v>1211.542592003095</v>
+        <v>1250.873828117401</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>620.1834552773903</v>
+        <v>902.0299249226553</v>
       </c>
       <c r="C12" t="n">
-        <v>518.4737185082929</v>
+        <v>727.5768956415283</v>
       </c>
       <c r="D12" t="n">
-        <v>369.5393088470416</v>
+        <v>578.642485980277</v>
       </c>
       <c r="E12" t="n">
-        <v>283.0451463536158</v>
+        <v>419.4050309748215</v>
       </c>
       <c r="F12" t="n">
-        <v>136.5105883805008</v>
+        <v>272.8704730017065</v>
       </c>
       <c r="G12" t="n">
-        <v>67.21613283989959</v>
+        <v>179.2180677755438</v>
       </c>
       <c r="H12" t="n">
-        <v>40.90777418699165</v>
+        <v>80.16641661060625</v>
       </c>
       <c r="I12" t="n">
-        <v>40.90777418699165</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J12" t="n">
-        <v>52.61169122775928</v>
+        <v>112.3156995059747</v>
       </c>
       <c r="K12" t="n">
-        <v>150.7703743478346</v>
+        <v>472.2949672685028</v>
       </c>
       <c r="L12" t="n">
-        <v>329.0793784918073</v>
+        <v>650.6039714124755</v>
       </c>
       <c r="M12" t="n">
-        <v>835.3130840558289</v>
+        <v>878.0390371283704</v>
       </c>
       <c r="N12" t="n">
-        <v>1083.176324122811</v>
+        <v>1125.902277195353</v>
       </c>
       <c r="O12" t="n">
-        <v>1589.410029686833</v>
+        <v>1330.428922643443</v>
       </c>
       <c r="P12" t="n">
-        <v>1790.524661713366</v>
+        <v>1790.524661713372</v>
       </c>
       <c r="Q12" t="n">
-        <v>2045.388709349582</v>
+        <v>2045.388709349588</v>
       </c>
       <c r="R12" t="n">
-        <v>2045.388709349582</v>
+        <v>2036.262008946729</v>
       </c>
       <c r="S12" t="n">
-        <v>1899.507489482536</v>
+        <v>1963.124081591712</v>
       </c>
       <c r="T12" t="n">
-        <v>1776.03955891957</v>
+        <v>1839.656151028747</v>
       </c>
       <c r="U12" t="n">
-        <v>1547.91347120383</v>
+        <v>1684.273355825036</v>
       </c>
       <c r="V12" t="n">
-        <v>1385.504655484117</v>
+        <v>1521.864540105323</v>
       </c>
       <c r="W12" t="n">
-        <v>1204.010591267945</v>
+        <v>1340.370475889151</v>
       </c>
       <c r="X12" t="n">
-        <v>996.1590910624122</v>
+        <v>1205.262268195648</v>
       </c>
       <c r="Y12" t="n">
-        <v>788.3987922974584</v>
+        <v>1070.245261942723</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>498.0944545543859</v>
+        <v>389.1892822361754</v>
       </c>
       <c r="C13" t="n">
-        <v>401.9015641385087</v>
+        <v>337.7301848947016</v>
       </c>
       <c r="D13" t="n">
-        <v>365.9984344918632</v>
+        <v>337.7301848947016</v>
       </c>
       <c r="E13" t="n">
-        <v>290.8286334214997</v>
+        <v>337.7301848947016</v>
       </c>
       <c r="F13" t="n">
-        <v>216.681978435619</v>
+        <v>263.5835299088208</v>
       </c>
       <c r="G13" t="n">
-        <v>120.9802613029016</v>
+        <v>167.8818127761033</v>
       </c>
       <c r="H13" t="n">
-        <v>40.90777418699165</v>
+        <v>87.80932566019334</v>
       </c>
       <c r="I13" t="n">
-        <v>40.90777418699165</v>
+        <v>40.90777418699176</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8986606350009</v>
+        <v>105.898660635001</v>
       </c>
       <c r="K13" t="n">
         <v>296.6704512829319</v>
       </c>
       <c r="L13" t="n">
-        <v>576.3808474597819</v>
+        <v>576.3808474597818</v>
       </c>
       <c r="M13" t="n">
         <v>877.8097457222248</v>
@@ -5236,13 +5236,13 @@
         <v>1018.063877096805</v>
       </c>
       <c r="W13" t="n">
-        <v>801.3899995718741</v>
+        <v>801.3899995718739</v>
       </c>
       <c r="X13" t="n">
-        <v>646.1437411858864</v>
+        <v>646.143741185886</v>
       </c>
       <c r="Y13" t="n">
-        <v>498.0944545543859</v>
+        <v>498.0944545543855</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1343.6798883723</v>
+        <v>1574.768011835502</v>
       </c>
       <c r="C14" t="n">
-        <v>1047.460663943918</v>
+        <v>1574.768011835502</v>
       </c>
       <c r="D14" t="n">
-        <v>1047.460663943918</v>
+        <v>1289.245605740781</v>
       </c>
       <c r="E14" t="n">
-        <v>734.4157038577036</v>
+        <v>976.2006456545662</v>
       </c>
       <c r="F14" t="n">
-        <v>396.1730915801259</v>
+        <v>637.9580333769882</v>
       </c>
       <c r="G14" t="n">
-        <v>52.18938650225272</v>
+        <v>293.9743282991154</v>
       </c>
       <c r="H14" t="n">
         <v>52.18938650225272</v>
@@ -5276,52 +5276,52 @@
         <v>52.18938650225272</v>
       </c>
       <c r="J14" t="n">
-        <v>103.435382251039</v>
+        <v>270.841031271392</v>
       </c>
       <c r="K14" t="n">
-        <v>314.5015180890711</v>
+        <v>719.2879714362714</v>
       </c>
       <c r="L14" t="n">
-        <v>923.1162292968249</v>
+        <v>914.4180802390794</v>
       </c>
       <c r="M14" t="n">
-        <v>1568.959887262202</v>
+        <v>1163.207361273131</v>
       </c>
       <c r="N14" t="n">
-        <v>1826.388647343403</v>
+        <v>1420.636121354332</v>
       </c>
       <c r="O14" t="n">
-        <v>2056.136064420426</v>
+        <v>1823.732110683921</v>
       </c>
       <c r="P14" t="n">
-        <v>2536.299889732125</v>
+        <v>2303.89593599562</v>
       </c>
       <c r="Q14" t="n">
-        <v>2609.469325112636</v>
+        <v>2587.257212129437</v>
       </c>
       <c r="R14" t="n">
         <v>2609.469325112636</v>
       </c>
       <c r="S14" t="n">
-        <v>2609.469325112636</v>
+        <v>2534.218949479</v>
       </c>
       <c r="T14" t="n">
-        <v>2609.469325112636</v>
+        <v>2534.218949479</v>
       </c>
       <c r="U14" t="n">
-        <v>2555.680303895309</v>
+        <v>2413.835435174178</v>
       </c>
       <c r="V14" t="n">
-        <v>2555.680303895309</v>
+        <v>2155.515840342637</v>
       </c>
       <c r="W14" t="n">
-        <v>2275.654941137224</v>
+        <v>1875.490477584552</v>
       </c>
       <c r="X14" t="n">
-        <v>1974.932475388174</v>
+        <v>1574.768011835502</v>
       </c>
       <c r="Y14" t="n">
-        <v>1657.536435924392</v>
+        <v>1574.768011835502</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.9074931014967</v>
+        <v>956.9074931014966</v>
       </c>
       <c r="C15" t="n">
-        <v>782.4544638203697</v>
+        <v>782.4544638203696</v>
       </c>
       <c r="D15" t="n">
-        <v>633.5200541591184</v>
+        <v>633.5200541591182</v>
       </c>
       <c r="E15" t="n">
-        <v>474.282599153663</v>
+        <v>474.2825991536627</v>
       </c>
       <c r="F15" t="n">
-        <v>327.7480411805479</v>
+        <v>327.7480411805476</v>
       </c>
       <c r="G15" t="n">
         <v>190.4996800908048</v>
       </c>
       <c r="H15" t="n">
-        <v>91.44802892586721</v>
+        <v>91.44802892586719</v>
       </c>
       <c r="I15" t="n">
         <v>52.18938650225272</v>
@@ -5361,19 +5361,19 @@
         <v>548.7026962925532</v>
       </c>
       <c r="L15" t="n">
-        <v>1032.737405950052</v>
+        <v>816.7041692771282</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.172471665946</v>
+        <v>1044.139234993023</v>
       </c>
       <c r="N15" t="n">
-        <v>1508.035711732929</v>
+        <v>1689.9828929584</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.486053264982</v>
+        <v>1894.509538406491</v>
       </c>
       <c r="P15" t="n">
-        <v>2562.58179233491</v>
+        <v>2354.60527747642</v>
       </c>
       <c r="Q15" t="n">
         <v>2609.469325112636</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>400.4708945514386</v>
+        <v>597.7478355965097</v>
       </c>
       <c r="C16" t="n">
-        <v>304.2780041355613</v>
+        <v>501.5549451806323</v>
       </c>
       <c r="D16" t="n">
-        <v>226.9046572352553</v>
+        <v>424.1815982803262</v>
       </c>
       <c r="E16" t="n">
-        <v>226.9046572352553</v>
+        <v>349.0117972099626</v>
       </c>
       <c r="F16" t="n">
-        <v>179.1634250913641</v>
+        <v>274.8651422240818</v>
       </c>
       <c r="G16" t="n">
-        <v>179.1634250913641</v>
+        <v>179.1634250913643</v>
       </c>
       <c r="H16" t="n">
-        <v>99.09093797545415</v>
+        <v>99.0909379754543</v>
       </c>
       <c r="I16" t="n">
         <v>52.18938650225272</v>
@@ -5437,13 +5437,13 @@
         <v>117.180272950262</v>
       </c>
       <c r="K16" t="n">
-        <v>307.9520635981931</v>
+        <v>307.952063598193</v>
       </c>
       <c r="L16" t="n">
-        <v>587.6624597750432</v>
+        <v>587.6624597750429</v>
       </c>
       <c r="M16" t="n">
-        <v>889.0913580374862</v>
+        <v>889.0913580374859</v>
       </c>
       <c r="N16" t="n">
         <v>1190.482819663656</v>
@@ -5452,34 +5452,34 @@
         <v>1458.292902164797</v>
       </c>
       <c r="P16" t="n">
-        <v>1674.219923217308</v>
+        <v>1674.219923217307</v>
       </c>
       <c r="Q16" t="n">
-        <v>1762.215773231561</v>
+        <v>1762.21577323156</v>
       </c>
       <c r="R16" t="n">
-        <v>1711.757810734949</v>
+        <v>1711.757810734948</v>
       </c>
       <c r="S16" t="n">
-        <v>1579.881167452748</v>
+        <v>1579.881167452747</v>
       </c>
       <c r="T16" t="n">
-        <v>1427.686741632949</v>
+        <v>1427.686741632948</v>
       </c>
       <c r="U16" t="n">
-        <v>1211.286685105925</v>
+        <v>1211.286685105923</v>
       </c>
       <c r="V16" t="n">
-        <v>1029.345489412067</v>
+        <v>1029.345489412066</v>
       </c>
       <c r="W16" t="n">
-        <v>812.6716118871364</v>
+        <v>1009.948552932208</v>
       </c>
       <c r="X16" t="n">
-        <v>657.4253535011489</v>
+        <v>854.7022945462204</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.3760668696486</v>
+        <v>706.6530079147199</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1384.878910410925</v>
+        <v>1384.878910410926</v>
       </c>
       <c r="C17" t="n">
-        <v>1169.677740291369</v>
+        <v>1169.67774029137</v>
       </c>
       <c r="D17" t="n">
-        <v>965.173388505475</v>
+        <v>965.1733885054753</v>
       </c>
       <c r="E17" t="n">
-        <v>733.1464827280869</v>
+        <v>733.146482728087</v>
       </c>
       <c r="F17" t="n">
-        <v>475.9219247593355</v>
+        <v>475.9219247593354</v>
       </c>
       <c r="G17" t="n">
-        <v>212.9562739902889</v>
+        <v>212.956273990289</v>
       </c>
       <c r="H17" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="I17" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J17" t="n">
         <v>270.841031271392</v>
@@ -5519,46 +5519,46 @@
         <v>398.3840129908182</v>
       </c>
       <c r="L17" t="n">
-        <v>931.7557083439743</v>
+        <v>593.5141217936263</v>
       </c>
       <c r="M17" t="n">
-        <v>1180.544989378026</v>
+        <v>842.3034028276779</v>
       </c>
       <c r="N17" t="n">
-        <v>1826.388647343403</v>
+        <v>1488.147060793055</v>
       </c>
       <c r="O17" t="n">
-        <v>2056.136064420426</v>
+        <v>1845.94422366712</v>
       </c>
       <c r="P17" t="n">
-        <v>2536.299889732125</v>
+        <v>2326.108048978819</v>
       </c>
       <c r="Q17" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="R17" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="S17" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="T17" t="n">
-        <v>2550.010142921443</v>
+        <v>2550.010142921444</v>
       </c>
       <c r="U17" t="n">
         <v>2450.108649221344</v>
       </c>
       <c r="V17" t="n">
-        <v>2272.807108698629</v>
+        <v>2272.80710869863</v>
       </c>
       <c r="W17" t="n">
-        <v>2073.79980024937</v>
+        <v>2073.799800249371</v>
       </c>
       <c r="X17" t="n">
-        <v>1854.095388809147</v>
+        <v>1854.095388809148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.717403654191</v>
+        <v>1617.717403654192</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.9074931014961</v>
+        <v>956.9074931014967</v>
       </c>
       <c r="C18" t="n">
-        <v>782.4544638203691</v>
+        <v>782.4544638203697</v>
       </c>
       <c r="D18" t="n">
-        <v>633.5200541591178</v>
+        <v>633.5200541591184</v>
       </c>
       <c r="E18" t="n">
-        <v>474.2825991536622</v>
+        <v>474.282599153663</v>
       </c>
       <c r="F18" t="n">
-        <v>327.7480411805471</v>
+        <v>327.7480411805479</v>
       </c>
       <c r="G18" t="n">
-        <v>190.4996800908043</v>
+        <v>190.4996800908048</v>
       </c>
       <c r="H18" t="n">
-        <v>91.44802892586721</v>
+        <v>91.44802892586719</v>
       </c>
       <c r="I18" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J18" t="n">
-        <v>188.7234285300251</v>
+        <v>63.89330354302034</v>
       </c>
       <c r="K18" t="n">
-        <v>548.7026962925532</v>
+        <v>423.8725713055485</v>
       </c>
       <c r="L18" t="n">
-        <v>727.0117004365259</v>
+        <v>796.2759949260409</v>
       </c>
       <c r="M18" t="n">
-        <v>1372.855358401903</v>
+        <v>1442.119652891418</v>
       </c>
       <c r="N18" t="n">
         <v>1689.9828929584</v>
@@ -5625,19 +5625,19 @@
         <v>2258.250181767735</v>
       </c>
       <c r="U18" t="n">
-        <v>2030.124094051995</v>
+        <v>2030.124094051996</v>
       </c>
       <c r="V18" t="n">
-        <v>1794.971985820252</v>
+        <v>1794.971985820253</v>
       </c>
       <c r="W18" t="n">
         <v>1540.734629092051</v>
       </c>
       <c r="X18" t="n">
-        <v>1332.883128886518</v>
+        <v>1332.883128886519</v>
       </c>
       <c r="Y18" t="n">
-        <v>1125.122830121564</v>
+        <v>1125.122830121565</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.04788543319464</v>
+        <v>88.4807132497757</v>
       </c>
       <c r="C19" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="D19" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="E19" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="F19" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="G19" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="H19" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="I19" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="J19" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="K19" t="n">
         <v>171.6654761591435</v>
@@ -5698,25 +5698,25 @@
         <v>1198.15497984627</v>
       </c>
       <c r="S19" t="n">
-        <v>1147.296390872895</v>
+        <v>993.5350440520392</v>
       </c>
       <c r="T19" t="n">
-        <v>930.6781003034598</v>
+        <v>783.3495812991854</v>
       </c>
       <c r="U19" t="n">
-        <v>795.2960980852613</v>
+        <v>647.9675790809868</v>
       </c>
       <c r="V19" t="n">
-        <v>540.6116098793744</v>
+        <v>393.2830908750999</v>
       </c>
       <c r="W19" t="n">
-        <v>404.9557866632698</v>
+        <v>257.6272676589952</v>
       </c>
       <c r="X19" t="n">
-        <v>330.7275825861084</v>
+        <v>183.3990635818337</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.9350034425783</v>
+        <v>116.3678312591595</v>
       </c>
     </row>
     <row r="20">
@@ -5729,55 +5729,55 @@
         <v>1384.878910410926</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.677740291371</v>
+        <v>1169.67774029137</v>
       </c>
       <c r="D20" t="n">
-        <v>965.1733885054761</v>
+        <v>965.1733885054755</v>
       </c>
       <c r="E20" t="n">
-        <v>733.1464827280879</v>
+        <v>733.1464827280871</v>
       </c>
       <c r="F20" t="n">
-        <v>475.9219247593363</v>
+        <v>475.9219247593355</v>
       </c>
       <c r="G20" t="n">
-        <v>212.9562739902889</v>
+        <v>212.956273990289</v>
       </c>
       <c r="H20" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="I20" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J20" t="n">
         <v>103.435382251039</v>
       </c>
       <c r="K20" t="n">
-        <v>459.3828213803612</v>
+        <v>230.9783639704652</v>
       </c>
       <c r="L20" t="n">
-        <v>654.5129301831691</v>
+        <v>839.5930751782191</v>
       </c>
       <c r="M20" t="n">
-        <v>1300.356588148547</v>
+        <v>1485.436733143596</v>
       </c>
       <c r="N20" t="n">
-        <v>1557.785348229748</v>
+        <v>1742.865493224798</v>
       </c>
       <c r="O20" t="n">
-        <v>2164.524944756888</v>
+        <v>2056.136064420425</v>
       </c>
       <c r="P20" t="n">
-        <v>2326.10804897882</v>
+        <v>2536.299889732124</v>
       </c>
       <c r="Q20" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="R20" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="S20" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="T20" t="n">
         <v>2550.010142921443</v>
@@ -5786,7 +5786,7 @@
         <v>2450.108649221344</v>
       </c>
       <c r="V20" t="n">
-        <v>2272.80710869863</v>
+        <v>2272.807108698629</v>
       </c>
       <c r="W20" t="n">
         <v>2073.799800249371</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>956.9074931014967</v>
+        <v>956.9074931014961</v>
       </c>
       <c r="C21" t="n">
-        <v>782.4544638203697</v>
+        <v>782.4544638203691</v>
       </c>
       <c r="D21" t="n">
-        <v>633.5200541591184</v>
+        <v>633.5200541591178</v>
       </c>
       <c r="E21" t="n">
-        <v>474.282599153663</v>
+        <v>474.2825991536622</v>
       </c>
       <c r="F21" t="n">
-        <v>327.7480411805479</v>
+        <v>327.7480411805471</v>
       </c>
       <c r="G21" t="n">
-        <v>190.4996800908048</v>
+        <v>190.4996800908043</v>
       </c>
       <c r="H21" t="n">
-        <v>91.44802892586721</v>
+        <v>91.44802892586719</v>
       </c>
       <c r="I21" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J21" t="n">
         <v>188.7234285300251</v>
       </c>
       <c r="K21" t="n">
-        <v>286.8821116501005</v>
+        <v>548.7026962925532</v>
       </c>
       <c r="L21" t="n">
-        <v>832.3230576444977</v>
+        <v>1094.143642286951</v>
       </c>
       <c r="M21" t="n">
-        <v>1478.166715609875</v>
+        <v>1321.578708002845</v>
       </c>
       <c r="N21" t="n">
-        <v>2124.010373575253</v>
+        <v>1689.9828929584</v>
       </c>
       <c r="O21" t="n">
-        <v>2417.76419421852</v>
+        <v>1894.509538406491</v>
       </c>
       <c r="P21" t="n">
-        <v>2562.58179233491</v>
+        <v>2354.605277476419</v>
       </c>
       <c r="Q21" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="R21" t="n">
         <v>2600.342624709777</v>
@@ -5862,19 +5862,19 @@
         <v>2258.250181767735</v>
       </c>
       <c r="U21" t="n">
-        <v>2030.124094051996</v>
+        <v>2030.124094051995</v>
       </c>
       <c r="V21" t="n">
-        <v>1794.971985820253</v>
+        <v>1794.971985820252</v>
       </c>
       <c r="W21" t="n">
         <v>1540.734629092051</v>
       </c>
       <c r="X21" t="n">
-        <v>1332.883128886519</v>
+        <v>1332.883128886518</v>
       </c>
       <c r="Y21" t="n">
-        <v>1125.122830121565</v>
+        <v>1125.122830121564</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.04788543319464</v>
+        <v>88.4807132497757</v>
       </c>
       <c r="C22" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="D22" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="E22" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="F22" t="n">
-        <v>66.87304932614373</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="G22" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="H22" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="I22" t="n">
-        <v>52.18938650225272</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="J22" t="n">
-        <v>52.18938650225272</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="K22" t="n">
         <v>171.6654761591435</v>
@@ -5938,22 +5938,22 @@
         <v>1147.296390872895</v>
       </c>
       <c r="T22" t="n">
-        <v>1076.120019361923</v>
+        <v>937.1109281200413</v>
       </c>
       <c r="U22" t="n">
-        <v>940.7380171437242</v>
+        <v>647.9675790809868</v>
       </c>
       <c r="V22" t="n">
-        <v>686.0535289378373</v>
+        <v>393.2830908750999</v>
       </c>
       <c r="W22" t="n">
-        <v>404.9557866632698</v>
+        <v>257.6272676589952</v>
       </c>
       <c r="X22" t="n">
-        <v>176.9662357652524</v>
+        <v>183.3990635818337</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.9350034425783</v>
+        <v>116.3678312591595</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.878910410926</v>
+        <v>1384.878910410925</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.67774029137</v>
+        <v>1169.677740291369</v>
       </c>
       <c r="D23" t="n">
-        <v>965.1733885054754</v>
+        <v>965.1733885054746</v>
       </c>
       <c r="E23" t="n">
-        <v>733.1464827280871</v>
+        <v>733.1464827280865</v>
       </c>
       <c r="F23" t="n">
-        <v>475.9219247593355</v>
+        <v>475.921924759335</v>
       </c>
       <c r="G23" t="n">
-        <v>212.9562739902889</v>
+        <v>212.956273990289</v>
       </c>
       <c r="H23" t="n">
-        <v>52.1893865022527</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="I23" t="n">
-        <v>52.1893865022527</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J23" t="n">
         <v>270.841031271392</v>
@@ -5993,22 +5993,22 @@
         <v>719.2879714362714</v>
       </c>
       <c r="L23" t="n">
-        <v>1327.902682644025</v>
+        <v>920.9663137948327</v>
       </c>
       <c r="M23" t="n">
-        <v>1576.691963678077</v>
+        <v>1169.755594828884</v>
       </c>
       <c r="N23" t="n">
-        <v>2144.96936843317</v>
+        <v>1427.184354910085</v>
       </c>
       <c r="O23" t="n">
-        <v>2374.716785510192</v>
+        <v>2033.923951437226</v>
       </c>
       <c r="P23" t="n">
-        <v>2536.299889732124</v>
+        <v>2514.087776748925</v>
       </c>
       <c r="Q23" t="n">
-        <v>2609.469325112635</v>
+        <v>2587.257212129436</v>
       </c>
       <c r="R23" t="n">
         <v>2609.469325112635</v>
@@ -6026,7 +6026,7 @@
         <v>2272.807108698629</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.799800249371</v>
+        <v>2073.79980024937</v>
       </c>
       <c r="X23" t="n">
         <v>1854.095388809147</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.9074931014967</v>
+        <v>956.9074931014966</v>
       </c>
       <c r="C24" t="n">
-        <v>782.4544638203697</v>
+        <v>782.4544638203696</v>
       </c>
       <c r="D24" t="n">
-        <v>633.5200541591184</v>
+        <v>633.5200541591182</v>
       </c>
       <c r="E24" t="n">
-        <v>474.282599153663</v>
+        <v>474.2825991536627</v>
       </c>
       <c r="F24" t="n">
-        <v>327.7480411805479</v>
+        <v>327.7480411805476</v>
       </c>
       <c r="G24" t="n">
         <v>190.4996800908048</v>
@@ -6063,31 +6063,31 @@
         <v>91.44802892586719</v>
       </c>
       <c r="I24" t="n">
-        <v>52.1893865022527</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="J24" t="n">
-        <v>63.89330354302034</v>
+        <v>188.7234285300251</v>
       </c>
       <c r="K24" t="n">
-        <v>423.8725713055485</v>
+        <v>548.7026962925532</v>
       </c>
       <c r="L24" t="n">
-        <v>969.3135172999457</v>
+        <v>1094.143642286951</v>
       </c>
       <c r="M24" t="n">
-        <v>1252.115749851514</v>
+        <v>1321.578708002845</v>
       </c>
       <c r="N24" t="n">
-        <v>1897.959407816891</v>
+        <v>1569.441948069828</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.486053264982</v>
+        <v>1894.509538406491</v>
       </c>
       <c r="P24" t="n">
-        <v>2562.58179233491</v>
+        <v>2354.605277476419</v>
       </c>
       <c r="Q24" t="n">
-        <v>2609.469325112636</v>
+        <v>2609.469325112635</v>
       </c>
       <c r="R24" t="n">
         <v>2600.342624709777</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.9258716663864</v>
+        <v>88.4807132497757</v>
       </c>
       <c r="C25" t="n">
-        <v>370.7510355593355</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="D25" t="n">
-        <v>220.6343961469997</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="E25" t="n">
-        <v>220.6343961469997</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="F25" t="n">
-        <v>220.6343961469997</v>
+        <v>73.3058771427247</v>
       </c>
       <c r="G25" t="n">
-        <v>52.1893865022527</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="H25" t="n">
-        <v>52.1893865022527</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="I25" t="n">
-        <v>52.1893865022527</v>
+        <v>58.6222143188336</v>
       </c>
       <c r="J25" t="n">
-        <v>52.1893865022527</v>
+        <v>52.18938650225271</v>
       </c>
       <c r="K25" t="n">
         <v>171.6654761591435</v>
       </c>
       <c r="L25" t="n">
-        <v>380.0801713449532</v>
+        <v>380.0801713449533</v>
       </c>
       <c r="M25" t="n">
         <v>610.2133686163561</v>
@@ -6172,25 +6172,25 @@
         <v>1198.15497984627</v>
       </c>
       <c r="S25" t="n">
-        <v>1147.296390872895</v>
+        <v>993.5350440520392</v>
       </c>
       <c r="T25" t="n">
-        <v>1076.120019361923</v>
+        <v>783.3495812991855</v>
       </c>
       <c r="U25" t="n">
-        <v>940.7380171437242</v>
+        <v>494.2062322601309</v>
       </c>
       <c r="V25" t="n">
-        <v>690.7282492917102</v>
+        <v>393.2830908750999</v>
       </c>
       <c r="W25" t="n">
-        <v>555.0724260756056</v>
+        <v>257.6272676589952</v>
       </c>
       <c r="X25" t="n">
-        <v>480.8442219984442</v>
+        <v>183.3990635818337</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.8129896757701</v>
+        <v>116.3678312591595</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1867.275964223422</v>
+        <v>1867.275964223423</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.331501591837</v>
+        <v>1579.331501591838</v>
       </c>
       <c r="D26" t="n">
-        <v>1302.083857293912</v>
+        <v>1302.083857293914</v>
       </c>
       <c r="E26" t="n">
-        <v>997.3136590044944</v>
+        <v>997.3136590044959</v>
       </c>
       <c r="F26" t="n">
-        <v>667.3458085237132</v>
+        <v>667.3458085237147</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6368652426372</v>
+        <v>331.6368652426386</v>
       </c>
       <c r="H26" t="n">
-        <v>98.12668524257219</v>
+        <v>98.12668524257222</v>
       </c>
       <c r="I26" t="n">
         <v>73.3609008069236</v>
@@ -6233,43 +6233,43 @@
         <v>1349.074196948696</v>
       </c>
       <c r="M26" t="n">
-        <v>2042.881876140652</v>
+        <v>1962.158193591377</v>
       </c>
       <c r="N26" t="n">
-        <v>2733.284091389717</v>
+        <v>2652.560408840443</v>
       </c>
       <c r="O26" t="n">
-        <v>2963.03150846674</v>
+        <v>2882.307825917465</v>
       </c>
       <c r="P26" t="n">
-        <v>3443.195333778438</v>
+        <v>3362.471651229164</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.04504034618</v>
+        <v>3645.832927362981</v>
       </c>
       <c r="R26" t="n">
         <v>3668.04504034618</v>
       </c>
       <c r="S26" t="n">
-        <v>3601.069426509339</v>
+        <v>3601.069426509341</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.866951806117</v>
+        <v>3468.866951806119</v>
       </c>
       <c r="U26" t="n">
-        <v>3296.222165593988</v>
+        <v>3296.22216559399</v>
       </c>
       <c r="V26" t="n">
-        <v>3046.177332559244</v>
+        <v>3046.177332559246</v>
       </c>
       <c r="W26" t="n">
-        <v>2774.426731597956</v>
+        <v>2774.426731597958</v>
       </c>
       <c r="X26" t="n">
-        <v>2481.979027645702</v>
+        <v>2481.979027645704</v>
       </c>
       <c r="Y26" t="n">
-        <v>2172.857749978717</v>
+        <v>2172.857749978719</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>73.3609008069236</v>
       </c>
       <c r="J27" t="n">
-        <v>209.8949428346959</v>
+        <v>209.894942834696</v>
       </c>
       <c r="K27" t="n">
-        <v>569.874210597224</v>
+        <v>569.8742105972242</v>
       </c>
       <c r="L27" t="n">
-        <v>1076.585291833614</v>
+        <v>1115.315156591621</v>
       </c>
       <c r="M27" t="n">
-        <v>1304.020357549509</v>
+        <v>1342.750222307516</v>
       </c>
       <c r="N27" t="n">
-        <v>2026.432548216609</v>
+        <v>1590.613462374499</v>
       </c>
       <c r="O27" t="n">
-        <v>2230.9591936647</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P27" t="n">
         <v>2375.776791781091</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9960173236027</v>
+        <v>560.9960173236026</v>
       </c>
       <c r="C28" t="n">
-        <v>473.0778887045221</v>
+        <v>473.077888704522</v>
       </c>
       <c r="D28" t="n">
-        <v>403.9793036010128</v>
+        <v>403.9793036010127</v>
       </c>
       <c r="E28" t="n">
-        <v>337.0842643274461</v>
+        <v>337.084264327446</v>
       </c>
       <c r="F28" t="n">
-        <v>271.2123711383622</v>
+        <v>271.212371138362</v>
       </c>
       <c r="G28" t="n">
-        <v>183.7854158024415</v>
+        <v>183.7854158024413</v>
       </c>
       <c r="H28" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833284</v>
       </c>
       <c r="I28" t="n">
         <v>73.3609008069236</v>
       </c>
       <c r="J28" t="n">
-        <v>146.4618812919734</v>
+        <v>146.4618812919732</v>
       </c>
       <c r="K28" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769447</v>
       </c>
       <c r="L28" t="n">
         <v>633.1642561908352</v>
@@ -6412,7 +6412,7 @@
         <v>1682.482957647336</v>
       </c>
       <c r="T28" t="n">
-        <v>1538.563293624334</v>
+        <v>1538.563293624333</v>
       </c>
       <c r="U28" t="n">
         <v>1330.437998894105</v>
@@ -6421,13 +6421,13 @@
         <v>1156.771564997045</v>
       </c>
       <c r="W28" t="n">
-        <v>948.3724492689106</v>
+        <v>948.3724492689107</v>
       </c>
       <c r="X28" t="n">
-        <v>801.4009526797197</v>
+        <v>801.4009526797196</v>
       </c>
       <c r="Y28" t="n">
-        <v>661.626427845016</v>
+        <v>661.6264278450159</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1867.275964223423</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.331501591837</v>
+        <v>1579.331501591838</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.083857293913</v>
+        <v>1302.083857293914</v>
       </c>
       <c r="E29" t="n">
-        <v>997.3136590044954</v>
+        <v>997.3136590044959</v>
       </c>
       <c r="F29" t="n">
-        <v>667.3458085237143</v>
+        <v>667.3458085237147</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6368652426381</v>
+        <v>331.6368652426386</v>
       </c>
       <c r="H29" t="n">
         <v>98.12668524257222</v>
@@ -6464,22 +6464,22 @@
         <v>292.0125455760629</v>
       </c>
       <c r="K29" t="n">
-        <v>740.4594857409422</v>
+        <v>419.5555272954891</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.074196948696</v>
+        <v>1028.170238503243</v>
       </c>
       <c r="M29" t="n">
-        <v>1817.569967877764</v>
+        <v>1721.977917695199</v>
       </c>
       <c r="N29" t="n">
-        <v>2507.972183126829</v>
+        <v>2412.380132944264</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.71177965397</v>
+        <v>3019.119729471405</v>
       </c>
       <c r="P29" t="n">
-        <v>3594.875604965669</v>
+        <v>3384.683764212364</v>
       </c>
       <c r="Q29" t="n">
         <v>3668.04504034618</v>
@@ -6488,25 +6488,25 @@
         <v>3668.04504034618</v>
       </c>
       <c r="S29" t="n">
-        <v>3601.06942650934</v>
+        <v>3601.069426509341</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.866951806118</v>
+        <v>3468.866951806119</v>
       </c>
       <c r="U29" t="n">
-        <v>3296.222165593989</v>
+        <v>3296.22216559399</v>
       </c>
       <c r="V29" t="n">
-        <v>3046.177332559245</v>
+        <v>3046.177332559246</v>
       </c>
       <c r="W29" t="n">
-        <v>2774.426731597957</v>
+        <v>2774.426731597958</v>
       </c>
       <c r="X29" t="n">
-        <v>2481.979027645703</v>
+        <v>2481.979027645704</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.857749978718</v>
+        <v>2172.857749978719</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>209.894942834696</v>
       </c>
       <c r="K30" t="n">
-        <v>308.0536259547713</v>
+        <v>569.8742105972242</v>
       </c>
       <c r="L30" t="n">
-        <v>486.362630098744</v>
+        <v>1115.315156591621</v>
       </c>
       <c r="M30" t="n">
-        <v>914.0966614655463</v>
+        <v>1342.750222307516</v>
       </c>
       <c r="N30" t="n">
-        <v>1636.508852132647</v>
+        <v>1590.613462374499</v>
       </c>
       <c r="O30" t="n">
-        <v>2230.9591936647</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P30" t="n">
         <v>2375.776791781091</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9960173236027</v>
+        <v>560.9960173236029</v>
       </c>
       <c r="C31" t="n">
-        <v>473.0778887045221</v>
+        <v>473.0778887045224</v>
       </c>
       <c r="D31" t="n">
-        <v>403.9793036010127</v>
+        <v>403.979303601013</v>
       </c>
       <c r="E31" t="n">
-        <v>337.084264327446</v>
+        <v>337.0842643274462</v>
       </c>
       <c r="F31" t="n">
-        <v>271.212371138362</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G31" t="n">
-        <v>183.7854158024413</v>
+        <v>183.7854158024416</v>
       </c>
       <c r="H31" t="n">
         <v>111.9876904833284</v>
@@ -6622,13 +6622,13 @@
         <v>146.4618812919734</v>
       </c>
       <c r="K31" t="n">
-        <v>345.3437659769448</v>
+        <v>345.3437659769449</v>
       </c>
       <c r="L31" t="n">
-        <v>633.1642561908352</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M31" t="n">
-        <v>942.7032484903187</v>
+        <v>942.7032484903191</v>
       </c>
       <c r="N31" t="n">
         <v>1252.204804153529</v>
@@ -6661,10 +6661,10 @@
         <v>948.3724492689104</v>
       </c>
       <c r="X31" t="n">
-        <v>801.4009526797194</v>
+        <v>801.4009526797195</v>
       </c>
       <c r="Y31" t="n">
-        <v>661.626427845016</v>
+        <v>661.6264278450162</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1867.275964223421</v>
+        <v>1867.275964223422</v>
       </c>
       <c r="C32" t="n">
-        <v>1579.331501591836</v>
+        <v>1579.331501591837</v>
       </c>
       <c r="D32" t="n">
         <v>1302.083857293912</v>
       </c>
       <c r="E32" t="n">
-        <v>997.313659004494</v>
+        <v>997.3136590044944</v>
       </c>
       <c r="F32" t="n">
-        <v>667.3458085237128</v>
+        <v>667.3458085237132</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6368652426372</v>
+        <v>331.6368652426377</v>
       </c>
       <c r="H32" t="n">
-        <v>98.12668524257214</v>
+        <v>98.12668524257222</v>
       </c>
       <c r="I32" t="n">
-        <v>73.36090080692357</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J32" t="n">
         <v>292.0125455760629</v>
       </c>
       <c r="K32" t="n">
-        <v>492.9354644948527</v>
+        <v>740.4594857409422</v>
       </c>
       <c r="L32" t="n">
-        <v>1101.550175702607</v>
+        <v>935.5895945437502</v>
       </c>
       <c r="M32" t="n">
-        <v>1795.357854894562</v>
+        <v>1585.166014141259</v>
       </c>
       <c r="N32" t="n">
-        <v>2485.760070143628</v>
+        <v>2275.568229390324</v>
       </c>
       <c r="O32" t="n">
-        <v>3092.499666670768</v>
+        <v>2882.307825917464</v>
       </c>
       <c r="P32" t="n">
-        <v>3572.663491982468</v>
+        <v>3362.471651229163</v>
       </c>
       <c r="Q32" t="n">
-        <v>3645.832927362979</v>
+        <v>3645.83292736298</v>
       </c>
       <c r="R32" t="n">
-        <v>3668.045040346178</v>
+        <v>3668.045040346179</v>
       </c>
       <c r="S32" t="n">
-        <v>3601.069426509339</v>
+        <v>3601.06942650934</v>
       </c>
       <c r="T32" t="n">
-        <v>3468.866951806117</v>
+        <v>3468.866951806118</v>
       </c>
       <c r="U32" t="n">
-        <v>3296.222165593987</v>
+        <v>3296.222165593988</v>
       </c>
       <c r="V32" t="n">
-        <v>3046.177332559243</v>
+        <v>3046.177332559244</v>
       </c>
       <c r="W32" t="n">
-        <v>2774.426731597955</v>
+        <v>2774.426731597956</v>
       </c>
       <c r="X32" t="n">
         <v>2481.979027645702</v>
@@ -6774,25 +6774,25 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I33" t="n">
-        <v>73.36090080692357</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J33" t="n">
-        <v>85.0648178476912</v>
+        <v>209.894942834696</v>
       </c>
       <c r="K33" t="n">
-        <v>445.0440856102193</v>
+        <v>569.8742105972241</v>
       </c>
       <c r="L33" t="n">
-        <v>990.4850316046166</v>
+        <v>1115.315156591621</v>
       </c>
       <c r="M33" t="n">
-        <v>1217.920097320511</v>
+        <v>1342.750222307516</v>
       </c>
       <c r="N33" t="n">
-        <v>1940.332287987612</v>
+        <v>1590.613462374499</v>
       </c>
       <c r="O33" t="n">
-        <v>2144.858933435703</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P33" t="n">
         <v>2375.776791781091</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.9960173236029</v>
+        <v>560.9960173236032</v>
       </c>
       <c r="C34" t="n">
-        <v>473.0778887045224</v>
+        <v>473.0778887045225</v>
       </c>
       <c r="D34" t="n">
-        <v>403.979303601013</v>
+        <v>403.9793036010132</v>
       </c>
       <c r="E34" t="n">
         <v>337.0842643274464</v>
@@ -6850,22 +6850,22 @@
         <v>183.7854158024418</v>
       </c>
       <c r="H34" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833284</v>
       </c>
       <c r="I34" t="n">
-        <v>73.36090080692357</v>
+        <v>73.36090080692358</v>
       </c>
       <c r="J34" t="n">
-        <v>146.4618812919734</v>
+        <v>146.4618812919732</v>
       </c>
       <c r="K34" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769447</v>
       </c>
       <c r="L34" t="n">
-        <v>633.1642561908354</v>
+        <v>633.1642561908352</v>
       </c>
       <c r="M34" t="n">
-        <v>942.7032484903191</v>
+        <v>942.7032484903187</v>
       </c>
       <c r="N34" t="n">
         <v>1252.204804153529</v>
@@ -6886,7 +6886,7 @@
         <v>1682.482957647336</v>
       </c>
       <c r="T34" t="n">
-        <v>1538.563293624333</v>
+        <v>1538.563293624334</v>
       </c>
       <c r="U34" t="n">
         <v>1330.437998894105</v>
@@ -6895,13 +6895,13 @@
         <v>1156.771564997045</v>
       </c>
       <c r="W34" t="n">
-        <v>948.3724492689108</v>
+        <v>948.3724492689107</v>
       </c>
       <c r="X34" t="n">
-        <v>801.4009526797199</v>
+        <v>801.4009526797198</v>
       </c>
       <c r="Y34" t="n">
-        <v>661.6264278450162</v>
+        <v>661.6264278450165</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1867.275964223423</v>
+        <v>1867.275964223422</v>
       </c>
       <c r="C35" t="n">
         <v>1579.331501591837</v>
@@ -6920,16 +6920,16 @@
         <v>1302.083857293913</v>
       </c>
       <c r="E35" t="n">
-        <v>997.3136590044955</v>
+        <v>997.313659004495</v>
       </c>
       <c r="F35" t="n">
-        <v>667.3458085237144</v>
+        <v>667.3458085237138</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6368652426379</v>
+        <v>331.6368652426377</v>
       </c>
       <c r="H35" t="n">
-        <v>98.12668524257217</v>
+        <v>98.12668524257219</v>
       </c>
       <c r="I35" t="n">
         <v>73.36090080692358</v>
@@ -6938,49 +6938,49 @@
         <v>292.0125455760629</v>
       </c>
       <c r="K35" t="n">
-        <v>419.5555272954891</v>
+        <v>740.4594857409422</v>
       </c>
       <c r="L35" t="n">
-        <v>1028.170238503243</v>
+        <v>935.5895945437502</v>
       </c>
       <c r="M35" t="n">
-        <v>1721.977917695199</v>
+        <v>1629.397273735706</v>
       </c>
       <c r="N35" t="n">
-        <v>2412.380132944264</v>
+        <v>2275.568229390323</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.519938900664</v>
+        <v>2882.307825917464</v>
       </c>
       <c r="P35" t="n">
-        <v>3384.683764212363</v>
+        <v>3362.471651229163</v>
       </c>
       <c r="Q35" t="n">
-        <v>3668.045040346179</v>
+        <v>3645.832927362979</v>
       </c>
       <c r="R35" t="n">
         <v>3668.045040346179</v>
       </c>
       <c r="S35" t="n">
-        <v>3601.06942650934</v>
+        <v>3601.069426509339</v>
       </c>
       <c r="T35" t="n">
-        <v>3468.866951806118</v>
+        <v>3468.866951806117</v>
       </c>
       <c r="U35" t="n">
-        <v>3296.222165593989</v>
+        <v>3296.222165593988</v>
       </c>
       <c r="V35" t="n">
-        <v>3046.177332559245</v>
+        <v>3046.177332559244</v>
       </c>
       <c r="W35" t="n">
-        <v>2774.426731597957</v>
+        <v>2774.426731597956</v>
       </c>
       <c r="X35" t="n">
         <v>2481.979027645703</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.857749978718</v>
+        <v>2172.857749978717</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>209.894942834696</v>
       </c>
       <c r="K36" t="n">
-        <v>308.0536259547713</v>
+        <v>569.8742105972241</v>
       </c>
       <c r="L36" t="n">
-        <v>486.362630098744</v>
+        <v>1115.315156591621</v>
       </c>
       <c r="M36" t="n">
-        <v>806.7950353704991</v>
+        <v>1342.750222307516</v>
       </c>
       <c r="N36" t="n">
-        <v>1529.2072260376</v>
+        <v>1590.613462374499</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.657567569653</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P36" t="n">
-        <v>2583.753306639581</v>
+        <v>2375.776791781091</v>
       </c>
       <c r="Q36" t="n">
         <v>2630.640839417307</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.9960173236026</v>
+        <v>560.9960173236028</v>
       </c>
       <c r="C37" t="n">
-        <v>473.0778887045221</v>
+        <v>473.0778887045223</v>
       </c>
       <c r="D37" t="n">
-        <v>403.9793036010128</v>
+        <v>403.9793036010129</v>
       </c>
       <c r="E37" t="n">
-        <v>337.0842643274461</v>
+        <v>337.0842643274462</v>
       </c>
       <c r="F37" t="n">
-        <v>271.2123711383621</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G37" t="n">
         <v>183.7854158024415</v>
       </c>
       <c r="H37" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833284</v>
       </c>
       <c r="I37" t="n">
         <v>73.36090080692358</v>
       </c>
       <c r="J37" t="n">
-        <v>146.4618812919734</v>
+        <v>146.4618812919732</v>
       </c>
       <c r="K37" t="n">
-        <v>345.343765976945</v>
+        <v>345.3437659769447</v>
       </c>
       <c r="L37" t="n">
-        <v>633.1642561908354</v>
+        <v>633.1642561908353</v>
       </c>
       <c r="M37" t="n">
-        <v>942.7032484903191</v>
+        <v>942.703248490319</v>
       </c>
       <c r="N37" t="n">
         <v>1252.204804153529</v>
@@ -7111,19 +7111,19 @@
         <v>1528.124980691711</v>
       </c>
       <c r="P37" t="n">
-        <v>1752.162095781261</v>
+        <v>1752.162095781262</v>
       </c>
       <c r="Q37" t="n">
         <v>1848.268039832555</v>
       </c>
       <c r="R37" t="n">
-        <v>1806.084839132739</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S37" t="n">
-        <v>1682.482957647335</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T37" t="n">
-        <v>1538.563293624333</v>
+        <v>1538.563293624334</v>
       </c>
       <c r="U37" t="n">
         <v>1330.437998894105</v>
@@ -7132,13 +7132,13 @@
         <v>1156.771564997045</v>
       </c>
       <c r="W37" t="n">
-        <v>948.3724492689105</v>
+        <v>948.3724492689107</v>
       </c>
       <c r="X37" t="n">
-        <v>801.4009526797196</v>
+        <v>801.4009526797198</v>
       </c>
       <c r="Y37" t="n">
-        <v>661.6264278450159</v>
+        <v>661.6264278450161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1867.275964223421</v>
+        <v>1867.275964223422</v>
       </c>
       <c r="C38" t="n">
-        <v>1579.331501591836</v>
+        <v>1579.331501591837</v>
       </c>
       <c r="D38" t="n">
-        <v>1302.083857293912</v>
+        <v>1302.083857293913</v>
       </c>
       <c r="E38" t="n">
-        <v>997.3136590044942</v>
+        <v>997.313659004495</v>
       </c>
       <c r="F38" t="n">
-        <v>667.345808523713</v>
+        <v>667.3458085237138</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6368652426379</v>
+        <v>331.6368652426377</v>
       </c>
       <c r="H38" t="n">
-        <v>98.12668524257217</v>
+        <v>98.12668524257222</v>
       </c>
       <c r="I38" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J38" t="n">
         <v>292.0125455760629</v>
       </c>
       <c r="K38" t="n">
-        <v>740.4594857409422</v>
+        <v>419.5555272954891</v>
       </c>
       <c r="L38" t="n">
-        <v>935.5895945437502</v>
+        <v>1028.170238503243</v>
       </c>
       <c r="M38" t="n">
-        <v>1607.378127124458</v>
+        <v>1721.977917695199</v>
       </c>
       <c r="N38" t="n">
-        <v>2297.780342373523</v>
+        <v>2412.380132944264</v>
       </c>
       <c r="O38" t="n">
-        <v>2904.519938900664</v>
+        <v>3019.119729471405</v>
       </c>
       <c r="P38" t="n">
-        <v>3384.683764212363</v>
+        <v>3362.471651229164</v>
       </c>
       <c r="Q38" t="n">
-        <v>3668.045040346179</v>
+        <v>3645.83292736298</v>
       </c>
       <c r="R38" t="n">
-        <v>3668.045040346179</v>
+        <v>3668.04504034618</v>
       </c>
       <c r="S38" t="n">
-        <v>3601.069426509339</v>
+        <v>3601.06942650934</v>
       </c>
       <c r="T38" t="n">
-        <v>3468.866951806117</v>
+        <v>3468.866951806118</v>
       </c>
       <c r="U38" t="n">
-        <v>3296.222165593988</v>
+        <v>3296.222165593989</v>
       </c>
       <c r="V38" t="n">
         <v>3046.177332559244</v>
       </c>
       <c r="W38" t="n">
-        <v>2774.426731597956</v>
+        <v>2774.426731597957</v>
       </c>
       <c r="X38" t="n">
-        <v>2481.979027645702</v>
+        <v>2481.979027645703</v>
       </c>
       <c r="Y38" t="n">
         <v>2172.857749978717</v>
@@ -7248,28 +7248,28 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I39" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J39" t="n">
-        <v>85.06481784769122</v>
+        <v>209.894942834696</v>
       </c>
       <c r="K39" t="n">
-        <v>278.0728475852072</v>
+        <v>569.8742105972242</v>
       </c>
       <c r="L39" t="n">
-        <v>823.5137935796045</v>
+        <v>1115.315156591621</v>
       </c>
       <c r="M39" t="n">
-        <v>1511.996872407999</v>
+        <v>1342.750222307516</v>
       </c>
       <c r="N39" t="n">
-        <v>2234.4090630751</v>
+        <v>1590.613462374499</v>
       </c>
       <c r="O39" t="n">
-        <v>2438.93570852319</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P39" t="n">
-        <v>2583.753306639581</v>
+        <v>2375.776791781091</v>
       </c>
       <c r="Q39" t="n">
         <v>2630.640839417307</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.9960173236026</v>
+        <v>560.9960173236029</v>
       </c>
       <c r="C40" t="n">
-        <v>473.0778887045221</v>
+        <v>473.0778887045224</v>
       </c>
       <c r="D40" t="n">
-        <v>403.9793036010128</v>
+        <v>403.979303601013</v>
       </c>
       <c r="E40" t="n">
-        <v>337.0842643274461</v>
+        <v>337.0842643274463</v>
       </c>
       <c r="F40" t="n">
-        <v>271.2123711383621</v>
+        <v>271.2123711383623</v>
       </c>
       <c r="G40" t="n">
-        <v>183.7854158024415</v>
+        <v>183.7854158024416</v>
       </c>
       <c r="H40" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833284</v>
       </c>
       <c r="I40" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J40" t="n">
         <v>146.4618812919734</v>
       </c>
       <c r="K40" t="n">
-        <v>345.343765976944</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L40" t="n">
-        <v>633.1642561908345</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M40" t="n">
-        <v>942.7032484903182</v>
+        <v>942.7032484903191</v>
       </c>
       <c r="N40" t="n">
         <v>1252.204804153529</v>
       </c>
       <c r="O40" t="n">
-        <v>1528.12498069171</v>
+        <v>1528.124980691711</v>
       </c>
       <c r="P40" t="n">
-        <v>1752.162095781261</v>
+        <v>1752.162095781262</v>
       </c>
       <c r="Q40" t="n">
-        <v>1848.268039832555</v>
+        <v>1848.268039832556</v>
       </c>
       <c r="R40" t="n">
-        <v>1806.084839132739</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S40" t="n">
-        <v>1682.482957647335</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T40" t="n">
-        <v>1538.563293624333</v>
+        <v>1538.563293624334</v>
       </c>
       <c r="U40" t="n">
-        <v>1330.437998894105</v>
+        <v>1330.437998894106</v>
       </c>
       <c r="V40" t="n">
         <v>1156.771564997045</v>
       </c>
       <c r="W40" t="n">
-        <v>948.3724492689105</v>
+        <v>948.3724492689109</v>
       </c>
       <c r="X40" t="n">
-        <v>801.4009526797196</v>
+        <v>801.4009526797199</v>
       </c>
       <c r="Y40" t="n">
-        <v>661.6264278450159</v>
+        <v>661.6264278450162</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.275964223422</v>
+        <v>1867.275964223423</v>
       </c>
       <c r="C41" t="n">
         <v>1579.331501591837</v>
@@ -7394,67 +7394,67 @@
         <v>1302.083857293913</v>
       </c>
       <c r="E41" t="n">
-        <v>997.3136590044949</v>
+        <v>997.3136590044952</v>
       </c>
       <c r="F41" t="n">
-        <v>667.3458085237137</v>
+        <v>667.3458085237141</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6368652426376</v>
+        <v>331.636865242638</v>
       </c>
       <c r="H41" t="n">
-        <v>98.12668524257222</v>
+        <v>98.12668524257219</v>
       </c>
       <c r="I41" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J41" t="n">
-        <v>289.4822517277329</v>
+        <v>292.0125455760629</v>
       </c>
       <c r="K41" t="n">
-        <v>737.9291918926123</v>
+        <v>740.4594857409422</v>
       </c>
       <c r="L41" t="n">
-        <v>1346.543903100366</v>
+        <v>1324.331790117167</v>
       </c>
       <c r="M41" t="n">
-        <v>2040.351582292322</v>
+        <v>2018.139469309123</v>
       </c>
       <c r="N41" t="n">
-        <v>2297.780342373523</v>
+        <v>2275.568229390324</v>
       </c>
       <c r="O41" t="n">
-        <v>2904.519938900664</v>
+        <v>2882.307825917464</v>
       </c>
       <c r="P41" t="n">
-        <v>3384.683764212363</v>
+        <v>3362.471651229164</v>
       </c>
       <c r="Q41" t="n">
-        <v>3668.045040346179</v>
+        <v>3645.83292736298</v>
       </c>
       <c r="R41" t="n">
-        <v>3668.045040346179</v>
+        <v>3668.04504034618</v>
       </c>
       <c r="S41" t="n">
         <v>3601.06942650934</v>
       </c>
       <c r="T41" t="n">
-        <v>3468.866951806117</v>
+        <v>3468.866951806118</v>
       </c>
       <c r="U41" t="n">
         <v>3296.222165593989</v>
       </c>
       <c r="V41" t="n">
-        <v>3046.177332559244</v>
+        <v>3046.177332559245</v>
       </c>
       <c r="W41" t="n">
-        <v>2774.426731597956</v>
+        <v>2774.426731597957</v>
       </c>
       <c r="X41" t="n">
         <v>2481.979027645703</v>
       </c>
       <c r="Y41" t="n">
-        <v>2172.857749978717</v>
+        <v>2172.857749978718</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I42" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J42" t="n">
-        <v>161.8742613307687</v>
+        <v>85.06481784769123</v>
       </c>
       <c r="K42" t="n">
-        <v>521.8535290932969</v>
+        <v>445.0440856102194</v>
       </c>
       <c r="L42" t="n">
-        <v>700.1625332372696</v>
+        <v>845.9324053962317</v>
       </c>
       <c r="M42" t="n">
-        <v>1388.645612065664</v>
+        <v>1073.367471112127</v>
       </c>
       <c r="N42" t="n">
-        <v>1636.508852132647</v>
+        <v>1321.230711179109</v>
       </c>
       <c r="O42" t="n">
-        <v>2230.9591936647</v>
+        <v>1915.681052711162</v>
       </c>
       <c r="P42" t="n">
         <v>2375.776791781091</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.996017323603</v>
+        <v>560.9960173236027</v>
       </c>
       <c r="C43" t="n">
-        <v>473.0778887045224</v>
+        <v>473.0778887045221</v>
       </c>
       <c r="D43" t="n">
-        <v>403.979303601013</v>
+        <v>403.9793036010128</v>
       </c>
       <c r="E43" t="n">
-        <v>337.0842643274463</v>
+        <v>337.0842643274461</v>
       </c>
       <c r="F43" t="n">
-        <v>271.2123711383623</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G43" t="n">
-        <v>183.7854158024417</v>
+        <v>183.7854158024416</v>
       </c>
       <c r="H43" t="n">
         <v>111.9876904833284</v>
       </c>
       <c r="I43" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J43" t="n">
-        <v>146.4618812919733</v>
+        <v>146.4618812919734</v>
       </c>
       <c r="K43" t="n">
-        <v>345.3437659769448</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L43" t="n">
-        <v>633.1642561908352</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M43" t="n">
-        <v>942.7032484903189</v>
+        <v>942.7032484903184</v>
       </c>
       <c r="N43" t="n">
         <v>1252.204804153529</v>
@@ -7585,34 +7585,34 @@
         <v>1528.124980691711</v>
       </c>
       <c r="P43" t="n">
-        <v>1752.162095781263</v>
+        <v>1752.162095781262</v>
       </c>
       <c r="Q43" t="n">
-        <v>1848.268039832556</v>
+        <v>1848.268039832555</v>
       </c>
       <c r="R43" t="n">
-        <v>1806.084839132741</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S43" t="n">
-        <v>1682.482957647337</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T43" t="n">
-        <v>1538.563293624334</v>
+        <v>1538.563293624333</v>
       </c>
       <c r="U43" t="n">
-        <v>1330.437998894106</v>
+        <v>1330.437998894105</v>
       </c>
       <c r="V43" t="n">
-        <v>1156.771564997046</v>
+        <v>1156.771564997045</v>
       </c>
       <c r="W43" t="n">
-        <v>948.3724492689112</v>
+        <v>948.3724492689106</v>
       </c>
       <c r="X43" t="n">
-        <v>801.4009526797201</v>
+        <v>801.4009526797197</v>
       </c>
       <c r="Y43" t="n">
-        <v>661.6264278450165</v>
+        <v>661.626427845016</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.275964223422</v>
+        <v>1867.275964223423</v>
       </c>
       <c r="C44" t="n">
         <v>1579.331501591837</v>
@@ -7631,7 +7631,7 @@
         <v>1302.083857293913</v>
       </c>
       <c r="E44" t="n">
-        <v>997.3136590044951</v>
+        <v>997.3136590044955</v>
       </c>
       <c r="F44" t="n">
         <v>667.3458085237141</v>
@@ -7640,16 +7640,16 @@
         <v>331.636865242638</v>
       </c>
       <c r="H44" t="n">
-        <v>98.12668524257214</v>
+        <v>98.12668524257219</v>
       </c>
       <c r="I44" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J44" t="n">
-        <v>211.2888630267873</v>
+        <v>292.0125455760629</v>
       </c>
       <c r="K44" t="n">
-        <v>659.7358031916666</v>
+        <v>740.4594857409422</v>
       </c>
       <c r="L44" t="n">
         <v>1268.35051439942</v>
@@ -7664,13 +7664,13 @@
         <v>2882.307825917464</v>
       </c>
       <c r="P44" t="n">
-        <v>3362.471651229163</v>
+        <v>3362.471651229164</v>
       </c>
       <c r="Q44" t="n">
         <v>3645.83292736298</v>
       </c>
       <c r="R44" t="n">
-        <v>3668.045040346179</v>
+        <v>3668.04504034618</v>
       </c>
       <c r="S44" t="n">
         <v>3601.06942650934</v>
@@ -7679,19 +7679,19 @@
         <v>3468.866951806118</v>
       </c>
       <c r="U44" t="n">
-        <v>3296.222165593988</v>
+        <v>3296.222165593989</v>
       </c>
       <c r="V44" t="n">
-        <v>3046.177332559244</v>
+        <v>3046.177332559245</v>
       </c>
       <c r="W44" t="n">
-        <v>2774.426731597956</v>
+        <v>2774.426731597957</v>
       </c>
       <c r="X44" t="n">
-        <v>2481.979027645702</v>
+        <v>2481.979027645703</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.857749978717</v>
+        <v>2172.857749978718</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>112.6195432305381</v>
       </c>
       <c r="I45" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J45" t="n">
-        <v>209.894942834696</v>
+        <v>85.06481784769123</v>
       </c>
       <c r="K45" t="n">
-        <v>569.8742105972241</v>
+        <v>445.0440856102194</v>
       </c>
       <c r="L45" t="n">
-        <v>1115.315156591621</v>
+        <v>990.4850316046166</v>
       </c>
       <c r="M45" t="n">
-        <v>1342.750222307516</v>
+        <v>1596.622126924155</v>
       </c>
       <c r="N45" t="n">
         <v>1844.485366991137</v>
@@ -7780,61 +7780,61 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.9960173236025</v>
+        <v>560.9960173236028</v>
       </c>
       <c r="C46" t="n">
-        <v>473.077888704522</v>
+        <v>473.0778887045223</v>
       </c>
       <c r="D46" t="n">
-        <v>403.9793036010127</v>
+        <v>403.979303601013</v>
       </c>
       <c r="E46" t="n">
-        <v>337.084264327446</v>
+        <v>337.0842643274462</v>
       </c>
       <c r="F46" t="n">
-        <v>271.2123711383621</v>
+        <v>271.2123711383622</v>
       </c>
       <c r="G46" t="n">
-        <v>183.7854158024415</v>
+        <v>183.7854158024416</v>
       </c>
       <c r="H46" t="n">
-        <v>111.9876904833283</v>
+        <v>111.9876904833284</v>
       </c>
       <c r="I46" t="n">
-        <v>73.36090080692358</v>
+        <v>73.3609008069236</v>
       </c>
       <c r="J46" t="n">
         <v>146.4618812919734</v>
       </c>
       <c r="K46" t="n">
-        <v>345.3437659769451</v>
+        <v>345.343765976945</v>
       </c>
       <c r="L46" t="n">
-        <v>633.1642561908345</v>
+        <v>633.1642561908354</v>
       </c>
       <c r="M46" t="n">
-        <v>942.7032484903182</v>
+        <v>942.7032484903191</v>
       </c>
       <c r="N46" t="n">
         <v>1252.204804153529</v>
       </c>
       <c r="O46" t="n">
-        <v>1528.12498069171</v>
+        <v>1528.124980691711</v>
       </c>
       <c r="P46" t="n">
-        <v>1752.162095781261</v>
+        <v>1752.162095781262</v>
       </c>
       <c r="Q46" t="n">
         <v>1848.268039832555</v>
       </c>
       <c r="R46" t="n">
-        <v>1806.084839132739</v>
+        <v>1806.08483913274</v>
       </c>
       <c r="S46" t="n">
-        <v>1682.482957647335</v>
+        <v>1682.482957647336</v>
       </c>
       <c r="T46" t="n">
-        <v>1538.563293624333</v>
+        <v>1538.563293624334</v>
       </c>
       <c r="U46" t="n">
         <v>1330.437998894105</v>
@@ -7843,13 +7843,13 @@
         <v>1156.771564997045</v>
       </c>
       <c r="W46" t="n">
-        <v>948.3724492689104</v>
+        <v>948.3724492689107</v>
       </c>
       <c r="X46" t="n">
-        <v>801.4009526797195</v>
+        <v>801.4009526797198</v>
       </c>
       <c r="Y46" t="n">
-        <v>661.6264278450158</v>
+        <v>661.6264278450161</v>
       </c>
     </row>
   </sheetData>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>5.680992835343844</v>
       </c>
       <c r="K11" t="n">
-        <v>246.0941985794738</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>314.2460573345606</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>251.3181267503239</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.30707906890434</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>281.6147877253806</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>304.754606177708</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>56.86569081832582</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>84.36682234202607</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>401.0650272033593</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>175.0995679318852</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>308.8138439530563</v>
+        <v>90.59845337434575</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>402.0004221195908</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>341.6581682326749</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9176,13 @@
         <v>392.3382806910872</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>129.34317757277</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>43.27994211217481</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>196.0549691682017</v>
       </c>
       <c r="M18" t="n">
-        <v>422.634941666144</v>
+        <v>422.6349416661438</v>
       </c>
       <c r="N18" t="n">
-        <v>69.96393382779277</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>230.711573141309</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>401.0650272033593</v>
+        <v>401.0650272033591</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>84.36682234202519</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>43.27994211217481</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>422.634941666144</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>402.0004221195909</v>
+        <v>121.758530190477</v>
       </c>
       <c r="O21" t="n">
-        <v>90.1284597931072</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>6.61437732904372</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>313.9885299736277</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>55.92643114714485</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>402.0004221195906</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>121.758530190477</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>367.9744602107368</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.2123951386165</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.27994211217484</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>331.7192697903207</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>121.7585301904775</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,13 +10112,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>221.9257473687028</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>206.0413439586138</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>43.27994211217481</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>202.3221875261691</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>121.7585301904775</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>74.12114868622581</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>404.835493498441</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>121.7585301904775</v>
       </c>
       <c r="P33" t="n">
-        <v>86.96995982727</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,19 +10586,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>392.6688844175915</v>
       </c>
       <c r="O35" t="n">
-        <v>265.0428170498756</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>93.93670662208109</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>121.7585301904775</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>427.2719712592485</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>183.6048661978058</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>95.80742082569768</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>121.7585301904775</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>166.5407628000233</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>392.6688844175924</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>43.27994211217481</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>77.58529644755303</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>224.8275915576158</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>87.55754188997719</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>336.1221412683538</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>382.5273026299431</v>
       </c>
       <c r="N45" t="n">
-        <v>256.4362672895342</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120.4505988046239</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>282.6671820337737</v>
       </c>
       <c r="E11" t="n">
-        <v>309.9145104853525</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>322.9605506587347</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>340.5438680270942</v>
       </c>
       <c r="H11" t="n">
-        <v>239.3670923788939</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.7101407701209</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>139.0724641350186</v>
       </c>
       <c r="U11" t="n">
-        <v>179.1103525288366</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>255.7363988832256</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>277.2251091305037</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>297.7152410915598</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>314.2220790691443</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.816120595028</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.28645514365951</v>
       </c>
       <c r="D13" t="n">
-        <v>41.05551508112401</v>
+        <v>76.5996134313031</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74.41810305965991</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>46.43253595846949</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>310.7179820765713</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>293.2570321840983</v>
       </c>
       <c r="D14" t="n">
-        <v>282.6671820337735</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>239.3670923788938</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.71014077012082</v>
+        <v>32.71014077012099</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.49787187729981</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>139.0724641350184</v>
+        <v>139.0724641350186</v>
       </c>
       <c r="U14" t="n">
-        <v>125.8592215236828</v>
+        <v>59.93067336706326</v>
       </c>
       <c r="V14" t="n">
-        <v>255.7363988832255</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>314.2220790691443</v>
       </c>
     </row>
     <row r="15">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>74.41810305965977</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>26.14136861356952</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>94.74469996139013</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>195.3041716346229</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1266290.479699345</v>
+        <v>1266290.479699344</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>81927.63387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170385</v>
+        <v>81927.6338717038</v>
       </c>
       <c r="D2" t="n">
-        <v>81927.6338717038</v>
+        <v>81927.63387170383</v>
       </c>
       <c r="E2" t="n">
-        <v>68125.88314978316</v>
+        <v>68125.88314978321</v>
       </c>
       <c r="F2" t="n">
-        <v>72482.16041655315</v>
+        <v>72482.16041655319</v>
       </c>
       <c r="G2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="H2" t="n">
         <v>82104.17698642833</v>
       </c>
-      <c r="H2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="I2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642841</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642841</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642843</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.1769864284</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642841</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642839</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>758470.6231047797</v>
+        <v>758470.6231047801</v>
       </c>
       <c r="F3" t="n">
-        <v>40405.94062803123</v>
+        <v>40405.94062803077</v>
       </c>
       <c r="G3" t="n">
-        <v>64166.29901259043</v>
+        <v>64166.29901259047</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69242.49610914144</v>
+        <v>69242.49610914139</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64166.29901259047</v>
+        <v>64166.29901259045</v>
       </c>
       <c r="M3" t="n">
-        <v>127429.7619811884</v>
+        <v>127429.7619811887</v>
       </c>
       <c r="N3" t="n">
-        <v>34539.64324424933</v>
+        <v>34539.64324424906</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,7 +26427,7 @@
         <v>131220.3499918506</v>
       </c>
       <c r="F4" t="n">
-        <v>143624.3033064808</v>
+        <v>143624.3033064806</v>
       </c>
       <c r="G4" t="n">
         <v>198367.7793949388</v>
@@ -26439,7 +26439,7 @@
         <v>198367.7793949388</v>
       </c>
       <c r="J4" t="n">
-        <v>183307.1339203247</v>
+        <v>183307.1339203246</v>
       </c>
       <c r="K4" t="n">
         <v>183307.1339203246</v>
@@ -26448,7 +26448,7 @@
         <v>183307.1339203246</v>
       </c>
       <c r="M4" t="n">
-        <v>183307.1339203247</v>
+        <v>183307.1339203246</v>
       </c>
       <c r="N4" t="n">
         <v>183307.1339203246</v>
@@ -26457,7 +26457,7 @@
         <v>183307.1339203246</v>
       </c>
       <c r="P4" t="n">
-        <v>183307.1339203247</v>
+        <v>183307.1339203246</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>52018.86662308687</v>
+        <v>52018.86662308694</v>
       </c>
       <c r="F5" t="n">
-        <v>60592.89198268529</v>
+        <v>60592.89198268527</v>
       </c>
       <c r="G5" t="n">
         <v>67335.88772229711</v>
@@ -26497,16 +26497,16 @@
         <v>77371.9372942351</v>
       </c>
       <c r="L5" t="n">
+        <v>77371.9372942351</v>
+      </c>
+      <c r="M5" t="n">
         <v>77371.93729423509</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77371.9372942351</v>
       </c>
       <c r="N5" t="n">
         <v>77371.9372942351</v>
       </c>
       <c r="O5" t="n">
-        <v>77371.93729423509</v>
+        <v>77371.9372942351</v>
       </c>
       <c r="P5" t="n">
         <v>77371.9372942351</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377223.1052943997</v>
+        <v>-377227.5188722678</v>
       </c>
       <c r="C6" t="n">
-        <v>-377223.1052943997</v>
+        <v>-377227.5188722679</v>
       </c>
       <c r="D6" t="n">
-        <v>-377223.1052943997</v>
+        <v>-377227.5188722678</v>
       </c>
       <c r="E6" t="n">
-        <v>-873583.956569934</v>
+        <v>-873933.4139158505</v>
       </c>
       <c r="F6" t="n">
-        <v>-172140.9755006442</v>
+        <v>-172381.5259148904</v>
       </c>
       <c r="G6" t="n">
-        <v>-247765.7891433981</v>
+        <v>-247765.789143398</v>
       </c>
       <c r="H6" t="n">
-        <v>-183599.4901308076</v>
+        <v>-183599.4901308075</v>
       </c>
       <c r="I6" t="n">
         <v>-183599.4901308076</v>
       </c>
       <c r="J6" t="n">
-        <v>-247817.3903372728</v>
+        <v>-247817.3903372727</v>
       </c>
       <c r="K6" t="n">
         <v>-178574.8942281313</v>
@@ -26552,16 +26552,16 @@
         <v>-242741.1932407218</v>
       </c>
       <c r="M6" t="n">
-        <v>-306004.6562093198</v>
+        <v>-306004.6562093199</v>
       </c>
       <c r="N6" t="n">
-        <v>-213114.5374723807</v>
+        <v>-213114.5374723804</v>
       </c>
       <c r="O6" t="n">
         <v>-178574.8942281313</v>
       </c>
       <c r="P6" t="n">
-        <v>-178574.8942281315</v>
+        <v>-178574.8942281313</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F2" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="G2" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H2" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="I2" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="J2" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="K2" t="n">
+        <v>80.2078737657381</v>
+      </c>
+      <c r="L2" t="n">
         <v>80.20787376573809</v>
       </c>
-      <c r="L2" t="n">
-        <v>80.20787376573814</v>
-      </c>
       <c r="M2" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="N2" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="O2" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="P2" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>682.3237129064833</v>
       </c>
       <c r="J3" t="n">
-        <v>682.3237129064831</v>
+        <v>682.3237129064833</v>
       </c>
       <c r="K3" t="n">
         <v>682.3237129064833</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.3471773373956</v>
+        <v>511.347177337397</v>
       </c>
       <c r="F4" t="n">
         <v>652.367331278159</v>
       </c>
       <c r="G4" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="H4" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="I4" t="n">
-        <v>652.3673312781588</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="J4" t="n">
+        <v>917.011260086545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.011260086545</v>
+      </c>
+      <c r="L4" t="n">
+        <v>917.0112600865448</v>
+      </c>
+      <c r="M4" t="n">
+        <v>917.0112600865447</v>
+      </c>
+      <c r="N4" t="n">
         <v>917.0112600865449</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>917.0112600865449</v>
       </c>
-      <c r="L4" t="n">
-        <v>917.0112600865446</v>
-      </c>
-      <c r="M4" t="n">
-        <v>917.0112600865448</v>
-      </c>
-      <c r="N4" t="n">
-        <v>917.0112600865448</v>
-      </c>
-      <c r="O4" t="n">
-        <v>917.0112600865448</v>
-      </c>
       <c r="P4" t="n">
-        <v>917.0112600865448</v>
+        <v>917.0112600865449</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.20787376573803</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.20787376573809</v>
+        <v>80.20787376573807</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.3471773373956</v>
+        <v>511.347177337397</v>
       </c>
       <c r="F4" t="n">
-        <v>141.0201539407634</v>
+        <v>141.020153940762</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.3471773373958</v>
+        <v>511.3471773373969</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0201539407633</v>
+        <v>141.0201539407622</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.20787376573803</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.3471773373956</v>
+        <v>511.347177337397</v>
       </c>
       <c r="N4" t="n">
-        <v>141.0201539407634</v>
+        <v>141.020153940762</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="C11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="D11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="E11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="G11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="H11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="T11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="U11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="V11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="W11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="X11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
     </row>
     <row r="12">
@@ -28169,25 +28169,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>72.01585958690933</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>72.01585958690933</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>67.27436649365059</v>
+        <v>43.15999630494471</v>
       </c>
       <c r="H12" t="n">
-        <v>72.01585958690933</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.86605599937834</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.035433398830108</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="T12" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="V12" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="W12" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>72.01585958690926</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="C13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="D13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="E13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="G13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="H13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="I13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="J13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="K13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="L13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="M13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="N13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="O13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="P13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="R13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="S13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="T13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="U13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="V13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="W13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="X13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.01585958690933</v>
+        <v>72.01585958690926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="C14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="D14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="E14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="G14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="H14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="I14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="T14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="U14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="V14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="W14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="X14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="C16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="D16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="E16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="F16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="G16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="H16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="I16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="J16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="K16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="L16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="M16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="N16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="O16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="P16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="R16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="S16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="T16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="U16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="V16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="W16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="X16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.0158595869094</v>
+        <v>72.01585958690926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="F17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="G17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="I17" t="n">
         <v>104.7260003570302</v>
@@ -28615,22 +28615,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="U17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="V17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="W17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,7 +28734,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H19" t="n">
         <v>151.2876218316602</v>
@@ -28743,7 +28743,7 @@
         <v>118.4483955453788</v>
       </c>
       <c r="J19" t="n">
-        <v>6.36849953841508</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2237333526474</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.236233484769173</v>
+        <v>14.60473302318496</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X19" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="E20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="F20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="I20" t="n">
         <v>104.7260003570302</v>
@@ -28852,22 +28852,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="U20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="V20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="W20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C22" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,7 +28971,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H22" t="n">
         <v>151.2876218316602</v>
@@ -28980,7 +28980,7 @@
         <v>118.4483955453788</v>
       </c>
       <c r="J22" t="n">
-        <v>6.36849953841508</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="T22" t="n">
-        <v>152.2237333526474</v>
+        <v>14.60473302318508</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2237333526474</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>8.236233484769173</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="E23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="F23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="G23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="I23" t="n">
         <v>104.7260003570302</v>
@@ -29089,22 +29089,22 @@
         <v>146.5137314642092</v>
       </c>
       <c r="T23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="U23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="V23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="W23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="24">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="C25" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,7 +29208,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="H25" t="n">
         <v>151.2876218316602</v>
@@ -29217,7 +29217,7 @@
         <v>118.4483955453788</v>
       </c>
       <c r="J25" t="n">
-        <v>6.36849953841508</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.9692424585553</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2237333526474</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>152.2237333526474</v>
+        <v>14.60473302318508</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2237333526474</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.627973150334185</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="X25" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.2237333526474</v>
+        <v>152.2237333526473</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="K28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="L28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="M28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="N28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="O28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="P28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="R28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="S28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="K31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="L31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="M31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="N31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="O31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="P31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="R31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="S31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.20787376573809</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="C32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="D32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="E32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="F32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="G32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="H32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="I32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="T32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="U32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="V32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="W32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="X32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="C34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="D34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="E34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="F34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="G34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="H34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="I34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="J34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="K34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="L34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="M34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="N34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="O34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="P34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="R34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="S34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="T34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="U34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="V34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="W34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="X34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573809</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="K37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="L37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="M37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="N37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="O37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="P37" t="n">
-        <v>80.20787376573716</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="R37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="S37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="C40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="D40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="E40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="F40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="G40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="H40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="I40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="J40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="K40" t="n">
-        <v>80.20787376573719</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="L40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="M40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="N40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="O40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="P40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.20787376573824</v>
       </c>
       <c r="R40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="S40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="T40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="U40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="V40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="W40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="X40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.20787376573814</v>
+        <v>80.2078737657381</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="C43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="D43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="E43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="F43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="G43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="H43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="I43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="J43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="K43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="L43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="M43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573745</v>
       </c>
       <c r="N43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="O43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="P43" t="n">
-        <v>80.20787376573924</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="R43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="S43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="T43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="U43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="V43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="W43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="X43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.20787376573807</v>
+        <v>80.20787376573813</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="C44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="D44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="E44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="F44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="G44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="H44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="I44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="T44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="U44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="V44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="W44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="X44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="C46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="D46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="E46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="F46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="G46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="H46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="I46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="J46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="K46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="L46" t="n">
-        <v>80.20787376573708</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="M46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="N46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="O46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573793</v>
       </c>
       <c r="P46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="R46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="S46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="T46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="U46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="V46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="W46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="X46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.20787376573816</v>
+        <v>80.20787376573811</v>
       </c>
     </row>
   </sheetData>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.743009901131588</v>
+        <v>2.743009901131589</v>
       </c>
       <c r="H26" t="n">
         <v>28.09185014996389</v>
@@ -32947,10 +32947,10 @@
         <v>232.8095365961674</v>
       </c>
       <c r="K26" t="n">
-        <v>348.9211457110676</v>
+        <v>348.9211457110677</v>
       </c>
       <c r="L26" t="n">
-        <v>432.8675349728235</v>
+        <v>432.8675349728236</v>
       </c>
       <c r="M26" t="n">
         <v>481.6485373020724</v>
@@ -32959,25 +32959,25 @@
         <v>489.4421141836626</v>
       </c>
       <c r="O26" t="n">
-        <v>462.1663094792853</v>
+        <v>462.1663094792854</v>
       </c>
       <c r="P26" t="n">
-        <v>394.4482525450991</v>
+        <v>394.4482525450992</v>
       </c>
       <c r="Q26" t="n">
-        <v>296.214210460824</v>
+        <v>296.2142104608241</v>
       </c>
       <c r="R26" t="n">
         <v>172.3055957019573</v>
       </c>
       <c r="S26" t="n">
-        <v>62.50633812203613</v>
+        <v>62.50633812203615</v>
       </c>
       <c r="T26" t="n">
-        <v>12.00752584220353</v>
+        <v>12.00752584220354</v>
       </c>
       <c r="U26" t="n">
-        <v>0.219440792090527</v>
+        <v>0.2194407920905271</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.467639684364888</v>
       </c>
       <c r="H27" t="n">
-        <v>14.17430958320826</v>
+        <v>14.17430958320827</v>
       </c>
       <c r="I27" t="n">
-        <v>50.53057685203673</v>
+        <v>50.53057685203674</v>
       </c>
       <c r="J27" t="n">
         <v>138.6597650916845</v>
@@ -33029,7 +33029,7 @@
         <v>236.991623944132</v>
       </c>
       <c r="L27" t="n">
-        <v>318.6644849758061</v>
+        <v>318.6644849758062</v>
       </c>
       <c r="M27" t="n">
         <v>371.8664235340333</v>
@@ -33038,25 +33038,25 @@
         <v>381.7086212419014</v>
       </c>
       <c r="O27" t="n">
-        <v>349.188815604132</v>
+        <v>349.1888156041321</v>
       </c>
       <c r="P27" t="n">
-        <v>280.2548095520987</v>
+        <v>280.2548095520988</v>
       </c>
       <c r="Q27" t="n">
         <v>187.3429183059461</v>
       </c>
       <c r="R27" t="n">
-        <v>91.12240075381301</v>
+        <v>91.12240075381303</v>
       </c>
       <c r="S27" t="n">
-        <v>27.26076343546183</v>
+        <v>27.26076343546184</v>
       </c>
       <c r="T27" t="n">
-        <v>5.915617850576017</v>
+        <v>5.915617850576018</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0965552423924269</v>
+        <v>0.09655524239242691</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>10.93955067577936</v>
       </c>
       <c r="I28" t="n">
-        <v>37.00207938187945</v>
+        <v>37.00207938187946</v>
       </c>
       <c r="J28" t="n">
-        <v>86.99068057825768</v>
+        <v>86.9906805782577</v>
       </c>
       <c r="K28" t="n">
         <v>142.9524106712271</v>
@@ -33114,7 +33114,7 @@
         <v>192.8738980597785</v>
       </c>
       <c r="N28" t="n">
-        <v>188.287787858276</v>
+        <v>188.2877878582761</v>
       </c>
       <c r="O28" t="n">
         <v>173.9142473486886</v>
@@ -33123,19 +33123,19 @@
         <v>148.8136832214401</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.0308806488789</v>
+        <v>103.030880648879</v>
       </c>
       <c r="R28" t="n">
-        <v>55.32414891861417</v>
+        <v>55.32414891861418</v>
       </c>
       <c r="S28" t="n">
         <v>21.44286160068406</v>
       </c>
       <c r="T28" t="n">
-        <v>5.257248279771262</v>
+        <v>5.257248279771263</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06711380782686727</v>
+        <v>0.06711380782686728</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.8602472415549</v>
+        <v>57.44462490482495</v>
       </c>
       <c r="K11" t="n">
-        <v>374.9254932455609</v>
+        <v>452.9767072372518</v>
       </c>
       <c r="L11" t="n">
-        <v>197.1011200028364</v>
+        <v>511.347177337397</v>
       </c>
       <c r="M11" t="n">
         <v>251.3023040747997</v>
       </c>
       <c r="N11" t="n">
-        <v>511.3471773373956</v>
+        <v>260.0290505870717</v>
       </c>
       <c r="O11" t="n">
         <v>232.0680980575986</v>
@@ -35431,7 +35431,7 @@
         <v>73.90852058637458</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.82213842501781</v>
+        <v>72.12921749392216</v>
       </c>
       <c r="K12" t="n">
-        <v>99.15018496977305</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L12" t="n">
         <v>180.110105195932</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3471773373956</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N12" t="n">
         <v>250.3669091585681</v>
       </c>
       <c r="O12" t="n">
-        <v>511.3471773373956</v>
+        <v>206.5925711596876</v>
       </c>
       <c r="P12" t="n">
-        <v>203.1460929560943</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q12" t="n">
         <v>257.4384319557737</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.64736004849425</v>
+        <v>65.64736004849418</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6987784322536</v>
+        <v>192.6987784322535</v>
       </c>
       <c r="L13" t="n">
         <v>282.5357537139898</v>
@@ -35577,16 +35577,16 @@
         <v>304.4736346085284</v>
       </c>
       <c r="N13" t="n">
-        <v>304.435819824414</v>
+        <v>304.4358198244139</v>
       </c>
       <c r="O13" t="n">
-        <v>270.5152348496376</v>
+        <v>270.5152348496375</v>
       </c>
       <c r="P13" t="n">
         <v>218.1081020732429</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.88469698409391</v>
+        <v>88.88469698409384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.7636320694811</v>
+        <v>220.8602472415549</v>
       </c>
       <c r="K14" t="n">
-        <v>213.1981170081132</v>
+        <v>452.9767072372518</v>
       </c>
       <c r="L14" t="n">
-        <v>614.7623345532868</v>
+        <v>197.1011200028364</v>
       </c>
       <c r="M14" t="n">
-        <v>652.367331278159</v>
+        <v>251.3023040747997</v>
       </c>
       <c r="N14" t="n">
         <v>260.0290505870717</v>
       </c>
       <c r="O14" t="n">
-        <v>232.0680980575986</v>
+        <v>407.1676659894838</v>
       </c>
       <c r="P14" t="n">
         <v>485.0139649613123</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.90852058637458</v>
+        <v>286.2235112462793</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>363.6154219823517</v>
       </c>
       <c r="L15" t="n">
-        <v>488.9239491489883</v>
+        <v>270.7085585702778</v>
       </c>
       <c r="M15" t="n">
         <v>229.732389612015</v>
       </c>
       <c r="N15" t="n">
-        <v>250.3669091585681</v>
+        <v>652.367331278159</v>
       </c>
       <c r="O15" t="n">
-        <v>600.4548904364171</v>
+        <v>206.5925711596876</v>
       </c>
       <c r="P15" t="n">
         <v>464.7431707777057</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.36114421992463</v>
+        <v>257.4384319557737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.64736004849432</v>
+        <v>65.64736004849418</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6987784322537</v>
+        <v>192.6987784322535</v>
       </c>
       <c r="L16" t="n">
-        <v>282.5357537139899</v>
+        <v>282.5357537139898</v>
       </c>
       <c r="M16" t="n">
-        <v>304.4736346085285</v>
+        <v>304.4736346085284</v>
       </c>
       <c r="N16" t="n">
-        <v>304.4358198244141</v>
+        <v>304.4358198244139</v>
       </c>
       <c r="O16" t="n">
-        <v>270.5152348496377</v>
+        <v>270.5152348496375</v>
       </c>
       <c r="P16" t="n">
-        <v>218.108102073243</v>
+        <v>218.1081020732429</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.88469698409398</v>
+        <v>88.88469698409384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>128.8312946660871</v>
       </c>
       <c r="L17" t="n">
-        <v>538.7592882355112</v>
+        <v>197.1011200028364</v>
       </c>
       <c r="M17" t="n">
         <v>251.3023040747997</v>
       </c>
       <c r="N17" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="O17" t="n">
-        <v>232.0680980575986</v>
+        <v>361.4112756303687</v>
       </c>
       <c r="P17" t="n">
         <v>485.0139649613123</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.90852058637458</v>
+        <v>286.2235112462793</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501781</v>
       </c>
       <c r="K18" t="n">
         <v>363.6154219823517</v>
       </c>
       <c r="L18" t="n">
-        <v>180.110105195932</v>
+        <v>376.1650743641337</v>
       </c>
       <c r="M18" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="N18" t="n">
-        <v>320.3308429863609</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O18" t="n">
         <v>206.5925711596876</v>
@@ -36121,25 +36121,25 @@
         <v>51.7636320694811</v>
       </c>
       <c r="K20" t="n">
-        <v>359.5428678073961</v>
+        <v>128.8312946660871</v>
       </c>
       <c r="L20" t="n">
-        <v>197.1011200028364</v>
+        <v>614.7623345532868</v>
       </c>
       <c r="M20" t="n">
-        <v>652.367331278159</v>
+        <v>652.3673312781589</v>
       </c>
       <c r="N20" t="n">
         <v>260.0290505870717</v>
       </c>
       <c r="O20" t="n">
-        <v>612.868279320344</v>
+        <v>316.4349203996238</v>
       </c>
       <c r="P20" t="n">
-        <v>163.2152567898297</v>
+        <v>485.0139649613123</v>
       </c>
       <c r="Q20" t="n">
-        <v>286.2235112462793</v>
+        <v>73.90852058637458</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K21" t="n">
-        <v>99.15018496977305</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L21" t="n">
         <v>550.9504504993912</v>
       </c>
       <c r="M21" t="n">
-        <v>652.367331278159</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N21" t="n">
-        <v>652.367331278159</v>
+        <v>372.1254393490452</v>
       </c>
       <c r="O21" t="n">
-        <v>296.7210309527948</v>
+        <v>206.5925711596876</v>
       </c>
       <c r="P21" t="n">
-        <v>146.2804021377685</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q21" t="n">
-        <v>47.36114421992463</v>
+        <v>257.4384319557737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>452.9767072372518</v>
       </c>
       <c r="L23" t="n">
-        <v>614.7623345532868</v>
+        <v>203.7154973318801</v>
       </c>
       <c r="M23" t="n">
         <v>251.3023040747997</v>
       </c>
       <c r="N23" t="n">
-        <v>574.0175805606995</v>
+        <v>260.0290505870717</v>
       </c>
       <c r="O23" t="n">
-        <v>232.0680980575986</v>
+        <v>612.868279320344</v>
       </c>
       <c r="P23" t="n">
-        <v>163.2152567898297</v>
+        <v>485.0139649613123</v>
       </c>
       <c r="Q23" t="n">
         <v>73.90852058637458</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>11.82213842501781</v>
+        <v>137.9131737654266</v>
       </c>
       <c r="K24" t="n">
         <v>363.6154219823517</v>
@@ -36443,19 +36443,19 @@
         <v>550.9504504993912</v>
       </c>
       <c r="M24" t="n">
-        <v>285.6588207591599</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N24" t="n">
-        <v>652.3673312781588</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O24" t="n">
-        <v>206.5925711596876</v>
+        <v>328.3511013501646</v>
       </c>
       <c r="P24" t="n">
         <v>464.7431707777057</v>
       </c>
       <c r="Q24" t="n">
-        <v>47.36114421992463</v>
+        <v>257.4384319557737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8602472415548</v>
+        <v>220.8602472415549</v>
       </c>
       <c r="K26" t="n">
         <v>452.9767072372518</v>
@@ -36601,7 +36601,7 @@
         <v>614.7623345532868</v>
       </c>
       <c r="M26" t="n">
-        <v>700.8158375676321</v>
+        <v>619.2767642855365</v>
       </c>
       <c r="N26" t="n">
         <v>697.3759749990559</v>
@@ -36610,13 +36610,13 @@
         <v>232.0680980575986</v>
       </c>
       <c r="P26" t="n">
-        <v>485.0139649613122</v>
+        <v>485.0139649613123</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.120915724991</v>
+        <v>286.2235112462793</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K27" t="n">
-        <v>363.6154219823516</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L27" t="n">
-        <v>511.8293749862526</v>
+        <v>550.9504504993912</v>
       </c>
       <c r="M27" t="n">
         <v>229.732389612015</v>
       </c>
       <c r="N27" t="n">
-        <v>729.7092835021216</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O27" t="n">
-        <v>206.5925711596876</v>
+        <v>328.3511013501651</v>
       </c>
       <c r="P27" t="n">
-        <v>146.2804021377685</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q27" t="n">
         <v>257.4384319557737</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.83937422732305</v>
+        <v>73.83937422732302</v>
       </c>
       <c r="K28" t="n">
         <v>200.8907926110824</v>
@@ -36771,7 +36771,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.07671116292271</v>
+        <v>97.07671116292268</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>220.8602472415549</v>
       </c>
       <c r="K29" t="n">
-        <v>452.9767072372518</v>
+        <v>128.8312946660871</v>
       </c>
       <c r="L29" t="n">
         <v>614.7623345532868</v>
       </c>
       <c r="M29" t="n">
-        <v>473.2280514435025</v>
+        <v>700.8158375676322</v>
       </c>
       <c r="N29" t="n">
         <v>697.3759749990559</v>
@@ -36847,10 +36847,10 @@
         <v>612.868279320344</v>
       </c>
       <c r="P29" t="n">
-        <v>485.0139649613123</v>
+        <v>369.2566007484434</v>
       </c>
       <c r="Q29" t="n">
-        <v>73.90852058637458</v>
+        <v>286.2235112462793</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K30" t="n">
-        <v>99.15018496977305</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L30" t="n">
-        <v>180.110105195932</v>
+        <v>550.9504504993912</v>
       </c>
       <c r="M30" t="n">
-        <v>432.0545771381841</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N30" t="n">
-        <v>729.7092835021217</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O30" t="n">
-        <v>600.4548904364171</v>
+        <v>328.3511013501651</v>
       </c>
       <c r="P30" t="n">
-        <v>146.2804021377685</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q30" t="n">
         <v>257.4384319557737</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.83937422732301</v>
+        <v>73.83937422732302</v>
       </c>
       <c r="K31" t="n">
         <v>200.8907926110824</v>
@@ -37008,7 +37008,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.07671116292266</v>
+        <v>97.07671116292268</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>220.8602472415549</v>
       </c>
       <c r="K32" t="n">
-        <v>202.9524433523129</v>
+        <v>452.9767072372518</v>
       </c>
       <c r="L32" t="n">
-        <v>614.7623345532868</v>
+        <v>197.1011200028364</v>
       </c>
       <c r="M32" t="n">
-        <v>700.8158375676322</v>
+        <v>656.1377975732407</v>
       </c>
       <c r="N32" t="n">
         <v>697.3759749990559</v>
@@ -37087,7 +37087,7 @@
         <v>485.0139649613123</v>
       </c>
       <c r="Q32" t="n">
-        <v>73.90852058637458</v>
+        <v>286.2235112462793</v>
       </c>
       <c r="R32" t="n">
         <v>22.43647776080763</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>11.82213842501781</v>
+        <v>137.9131737654266</v>
       </c>
       <c r="K33" t="n">
         <v>363.6154219823517</v>
@@ -37157,13 +37157,13 @@
         <v>229.732389612015</v>
       </c>
       <c r="N33" t="n">
-        <v>729.7092835021217</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O33" t="n">
-        <v>206.5925711596876</v>
+        <v>328.3511013501651</v>
       </c>
       <c r="P33" t="n">
-        <v>233.2503619650385</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q33" t="n">
         <v>257.4384319557737</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.83937422732306</v>
+        <v>73.83937422732301</v>
       </c>
       <c r="K34" t="n">
         <v>200.8907926110824</v>
       </c>
       <c r="L34" t="n">
-        <v>290.7277678928187</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M34" t="n">
         <v>312.6656487873572</v>
@@ -37245,7 +37245,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.07671116292272</v>
+        <v>97.07671116292266</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37306,19 @@
         <v>220.8602472415549</v>
       </c>
       <c r="K35" t="n">
-        <v>128.8312946660871</v>
+        <v>452.9767072372518</v>
       </c>
       <c r="L35" t="n">
-        <v>614.7623345532868</v>
+        <v>197.1011200028364</v>
       </c>
       <c r="M35" t="n">
         <v>700.8158375676322</v>
       </c>
       <c r="N35" t="n">
-        <v>697.3759749990559</v>
+        <v>652.6979350046632</v>
       </c>
       <c r="O35" t="n">
-        <v>497.1109151074742</v>
+        <v>612.868279320344</v>
       </c>
       <c r="P35" t="n">
         <v>485.0139649613123</v>
@@ -37327,7 +37327,7 @@
         <v>286.2235112462793</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>137.9131737654266</v>
       </c>
       <c r="K36" t="n">
-        <v>99.15018496977305</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L36" t="n">
-        <v>180.110105195932</v>
+        <v>550.9504504993912</v>
       </c>
       <c r="M36" t="n">
-        <v>323.6690962340961</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N36" t="n">
-        <v>729.7092835021217</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O36" t="n">
-        <v>600.4548904364171</v>
+        <v>328.3511013501651</v>
       </c>
       <c r="P36" t="n">
         <v>464.7431707777057</v>
       </c>
       <c r="Q36" t="n">
-        <v>47.36114421992463</v>
+        <v>257.4384319557737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.83937422732306</v>
+        <v>73.83937422732302</v>
       </c>
       <c r="K37" t="n">
         <v>200.8907926110824</v>
       </c>
       <c r="L37" t="n">
-        <v>290.7277678928187</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M37" t="n">
         <v>312.6656487873572</v>
@@ -37479,10 +37479,10 @@
         <v>278.7072490284664</v>
       </c>
       <c r="P37" t="n">
-        <v>226.3001162520708</v>
+        <v>226.3001162520717</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.07671116292272</v>
+        <v>97.07671116292268</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>220.8602472415549</v>
       </c>
       <c r="K38" t="n">
-        <v>452.9767072372518</v>
+        <v>128.8312946660871</v>
       </c>
       <c r="L38" t="n">
-        <v>197.1011200028364</v>
+        <v>614.7623345532868</v>
       </c>
       <c r="M38" t="n">
-        <v>678.5742753340483</v>
+        <v>700.8158375676322</v>
       </c>
       <c r="N38" t="n">
         <v>697.3759749990559</v>
@@ -37558,13 +37558,13 @@
         <v>612.868279320344</v>
       </c>
       <c r="P38" t="n">
-        <v>485.0139649613123</v>
+        <v>346.8201229876354</v>
       </c>
       <c r="Q38" t="n">
         <v>286.2235112462793</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.82213842501781</v>
+        <v>137.9131737654266</v>
       </c>
       <c r="K39" t="n">
-        <v>194.9576057954707</v>
+        <v>363.6154219823517</v>
       </c>
       <c r="L39" t="n">
         <v>550.9504504993912</v>
       </c>
       <c r="M39" t="n">
-        <v>695.4374533620149</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N39" t="n">
-        <v>729.7092835021217</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O39" t="n">
-        <v>206.5925711596876</v>
+        <v>328.3511013501651</v>
       </c>
       <c r="P39" t="n">
-        <v>146.2804021377685</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q39" t="n">
-        <v>47.36114421992463</v>
+        <v>257.4384319557737</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.83937422732306</v>
+        <v>73.83937422732302</v>
       </c>
       <c r="K40" t="n">
-        <v>200.8907926110815</v>
+        <v>200.8907926110824</v>
       </c>
       <c r="L40" t="n">
-        <v>290.7277678928187</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M40" t="n">
         <v>312.6656487873572</v>
@@ -37719,7 +37719,7 @@
         <v>226.3001162520717</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.07671116292272</v>
+        <v>97.07671116292282</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>218.3043948695044</v>
+        <v>220.8602472415549</v>
       </c>
       <c r="K41" t="n">
         <v>452.9767072372518</v>
       </c>
       <c r="L41" t="n">
-        <v>614.7623345532868</v>
+        <v>589.7700044204288</v>
       </c>
       <c r="M41" t="n">
         <v>700.8158375676322</v>
@@ -37801,7 +37801,7 @@
         <v>286.2235112462793</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>22.43647776080763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.40743487257085</v>
+        <v>11.82213842501781</v>
       </c>
       <c r="K42" t="n">
         <v>363.6154219823517</v>
       </c>
       <c r="L42" t="n">
-        <v>180.110105195932</v>
+        <v>404.9376967535478</v>
       </c>
       <c r="M42" t="n">
-        <v>695.4374533620149</v>
+        <v>229.732389612015</v>
       </c>
       <c r="N42" t="n">
         <v>250.3669091585681</v>
@@ -37874,7 +37874,7 @@
         <v>600.4548904364171</v>
       </c>
       <c r="P42" t="n">
-        <v>146.2804021377685</v>
+        <v>464.7431707777057</v>
       </c>
       <c r="Q42" t="n">
         <v>257.4384319557737</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.83937422732299</v>
+        <v>73.83937422732305</v>
       </c>
       <c r="K43" t="n">
-        <v>200.8907926110823</v>
+        <v>200.8907926110824</v>
       </c>
       <c r="L43" t="n">
         <v>290.7277678928186</v>
       </c>
       <c r="M43" t="n">
-        <v>312.6656487873572</v>
+        <v>312.6656487873565</v>
       </c>
       <c r="N43" t="n">
-        <v>312.6278340032427</v>
+        <v>312.6278340032428</v>
       </c>
       <c r="O43" t="n">
-        <v>278.7072490284663</v>
+        <v>278.7072490284664</v>
       </c>
       <c r="P43" t="n">
-        <v>226.3001162520729</v>
+        <v>226.3001162520717</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.07671116292265</v>
+        <v>97.07671116292271</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>139.3211739594583</v>
+        <v>220.8602472415549</v>
       </c>
       <c r="K44" t="n">
         <v>452.9767072372518</v>
       </c>
       <c r="L44" t="n">
-        <v>614.7623345532868</v>
+        <v>533.2232612711902</v>
       </c>
       <c r="M44" t="n">
         <v>700.8158375676322</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9131737654266</v>
+        <v>11.82213842501781</v>
       </c>
       <c r="K45" t="n">
         <v>363.6154219823517</v>
@@ -38102,10 +38102,10 @@
         <v>550.9504504993912</v>
       </c>
       <c r="M45" t="n">
-        <v>229.732389612015</v>
+        <v>612.2596922419581</v>
       </c>
       <c r="N45" t="n">
-        <v>506.8031764481022</v>
+        <v>250.3669091585681</v>
       </c>
       <c r="O45" t="n">
         <v>600.4548904364171</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.83937422732308</v>
+        <v>73.83937422732303</v>
       </c>
       <c r="K46" t="n">
         <v>200.8907926110824</v>
       </c>
       <c r="L46" t="n">
-        <v>290.7277678928176</v>
+        <v>290.7277678928186</v>
       </c>
       <c r="M46" t="n">
         <v>312.6656487873572</v>
@@ -38187,13 +38187,13 @@
         <v>312.6278340032428</v>
       </c>
       <c r="O46" t="n">
-        <v>278.7072490284664</v>
+        <v>278.7072490284662</v>
       </c>
       <c r="P46" t="n">
-        <v>226.3001162520718</v>
+        <v>226.3001162520717</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.07671116292273</v>
+        <v>97.07671116292269</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
